--- a/!parsed_items_100/1299/1299_599-700.xlsx
+++ b/!parsed_items_100/1299/1299_599-700.xlsx
@@ -645,22 +645,22 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор для точки G с</t>
+          <t>Презервативы GANZO классические, 12 шт.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-28291-1299</t>
+          <t>id-16086-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -676,17 +676,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28291/28291_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28291/28291_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28291/28291_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16086/16086_2_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильный черный вибратор с золотыми вставками Fredericks удовлетворит даже самых искушенных, начиная от своего внешнего вида до функционала! Уникальный вибромассажер-кролик с функцией подогрева! Вибрация основной части, клиторального стимулятора и разогревающий эффект регулируются независимо друг от друга и могут использоваться как вместе, так и по отдельности. Подогрев происходит за 4 минуты (плюс.минус 20 секунд) до температуры в 55 C (плюс.минус 2 градуса). Перезаряжаемый вибратор с  имеет 10 различных функций вибраций. Сделан стимулятор из гигиеничного силикона с бархатистой поверхностью, что максимально приятно ощущается слизистыми. Заряжается массажер от usb, время зарядки составляет 2 часа, время работы до 40 минут. Вибратор имеет travel-lock (защиту от внезапного включения) для этого задержите нижнюю кнопку на массажере на 3 секунды дожидаясь подсветки. Кратковременное этой же кнопки переключает режимы клиторального стимулятора, центральная кнопка отвечает за вибрацию основного (вагинального) стимулятора, а верхняя кнопка с обозначение</t>
+          <t xml:space="preserve">.Презервативы GANZO классические, 12 шт. . Презервативы GANZO классические, 12 шт.  Модель: ganzo-10027. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -699,11 +699,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
@@ -718,29 +714,15 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>22</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -753,7 +735,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство, мешочек для хранения, комплект для упаковки (оберточная бумага, атласная лента, подарочная открытка в конверте)</t>
+          <t>12 шт.</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -773,28 +755,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Небольшая анальная втулка Frederick</t>
+          <t>Презервативы GANZO SENSE No12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-28299-1299</t>
+          <t>id-16967-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -810,17 +792,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28299/28299_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28299/28299_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28299/28299_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16967/16967_1_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черная мини-пробка для анальной стимуляции из бархатистого силикона. Упругий стимулятор подойдет тем, кто любит деликатное проникновение. Небольшая анальная втулка Frederick.  Небольшая анальная втулка Frederick. Модель: fredericks-2004. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Особо тонкие презервативы Ganzo #sense с накопителем в обильной смазке на водной основе. Презервативы сохранят естественность ощущений, не снижая уровня защиты. Не рекомендуется использовать ректально.Характеристики: Материал презерватива: латекс. Количество презервативов: 12. Длина презерватива: 18 см. Ширина презерватива: 5,2 см. Толщина стенки презерватива: 0,05 мм. Производитель: Великобритания.Товар сертифицирован.Презервативы GANZO SENSE No12 Ультратонкие.  Презервативы GANZO SENSE No12 Ультратонкие. Модель: ganzo-11010. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -833,11 +815,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
@@ -850,31 +828,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y3" t="n">
-        <v>9.57</v>
+        <v>19.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.699999999999999</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.699999999999999</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.7</v>
-      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -887,7 +861,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>12 презерватива с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -907,28 +881,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FREEDOM</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Мягкие тампоны для любви во время</t>
+          <t>Презервативы GANZO LONG LOVE No3 с</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-21782-1299</t>
+          <t>id-16530-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -944,55 +918,57 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21782/21782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21782/21782_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21782/21782_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21782/21782_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21782/21782_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21782/21782_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16530/16530_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16530/16530_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16530/16530_3_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREEDOM - тампоны нового поколения для современных женщин!  удобная форма в виде сердечка  специальный воздушный материал  легкость введения и извлечения  легко адаптируются под форму тела  не ощущаются внутри  одобрены гинекологами и протестированы дерматологами  подходят для средних и обильных выделений  произведены в Германии Тампоны FREEDOM обеспечивают не только надежную защиту от выделений в критические дни, но и дают возможность не отказываться от своих обычных увлечений и планов! Заниматься любовью, спортом, плавать в бассейне, танцевать, встречаться с друзьями в СПА или отдыхать на пляже  с FREEDOM все это возможно даже в критические дни!.Мягкие тампоны для любви во время месячных FREEDOM NORMAL Sport, Spa, Love, Swim (3 шт).  Мягкие тампоны для любви во время месячных FREEDOM NORMAL Sport, Spa, Love, Swim (3 шт). Модель: freedom-12230. Косметика, препараты. Тампоны, чаши &gt; Мягкие тампоны. Цвет: розовый. Материал: гигиеничный пол</t>
+          <t xml:space="preserve">Презервативы Ganzo Long Love помогают решить проблему преждевременной эякуляции. Силиконовая смазка с добавлением анестетика бензокаина (benzocaine) снижает чувствительность рецепторов полового члена, не убавляя при этом силу возбуждения. В результате поддержки Ganzo Long Love половой акт становится продолжительнее и значимее. Характеристики:  Материал презерватива: латекс.  Количество презервативов: 3.  Длина презерватива: 18 см.  Ширина презерватива: 5,2 см.  Толщина стенки презерватива: 0,06 мм.  Производитель: Великобритания. Товар сертифицирован.Презервативы GANZO LONG LOVE No3 с анестетиком.  Презервативы GANZO LONG LOVE No3 с анестетиком. Модель: ganzo-11014. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>гигиеничный полиуретан</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,5 , * 4,5 </t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>5,5 , * 4,5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,5 , * 4,5 </t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>18</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -1011,7 +987,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>3 шт</t>
+          <t>3 презерватива с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1031,28 +1007,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FREEDOM</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Мягкие тампоны для любви во время</t>
+          <t>Презервативы GANZO RIBS No12 Ребристые</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-21781-1299</t>
+          <t>id-16529-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1068,17 +1044,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16529/16529_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16529/16529_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16529/16529_3_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREEDOM - тампоны нового поколения для современных женщин!  удобная форма в виде сердечка  специальный воздушный материал  легкость введения и извлечения  легко адаптируются под форму тела  не ощущаются внутри  одобрены гинекологами и протестированы дерматологами  подходят для небольших и средних выделений  произведены в Германии Тампоны FREEDOM обеспечивают не только надежную защиту от выделений в критические дни, но и дают возможность не отказываться от своих обыч</t>
+          <t xml:space="preserve">.Презервативы GANZO RIBS No12 Ребристые.  Презервативы GANZO RIBS No12 Ребристые. Модель: ganzo-21012. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1091,32 +1067,34 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>гигиеничный полиуретан</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,5 , * 4,5 </t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>5,5 , * 4,5</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">5,5 , * 4,5 </t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
@@ -1135,7 +1113,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>3 шт</t>
+          <t>12 презерватива с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1161,22 +1139,22 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Презервативы GANZO RIBS No3 Ребристые</t>
+          <t>Витой мощный вибратор анатомической</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-16523-1299</t>
+          <t>id-18369-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1192,30 +1170,34 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16523/16523_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16523/16523_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16523/16523_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_4_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO RIBS No3 Ребристые.  Презервативы GANZO RIBS No3 Ребристые. Модель: ganzo-00-00000122. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Второе поколение GJack - улучшенный анатомический вибратор GJack 2 - от известнейшей в мире секс игрушек великобританской фирмы Fun Toys (FT London)! Новинка 2017 года.GJack2 сделан из уникального и не повторяющегося больше ни в каких игрушках запатентованного материала Bioskin.  Это гипоаллергенное, не имеющее запаха покрытие премиум-качества, в котором соединилась нежность тактильного ощущения от киберкожи и идеальная гладкость великолепно скользящего силикона. Когда держишь эту игрушку - ее просто не хочется выпускать из рук!Gjack 2 имеет шесть режимов разнообразной вибрации - от легкого подразнивания до сильных толчков, вибрация проходит по всей длине ствола, доставляя наслаждение каждой клеточке тела. . Мощный, но очень тихий мотор, аккумуляторная зарядка на магнитных капсулах и полная водонепроницаемость.Продуманный анатомический дизайн. Слегка загнутый ствол по всей длине имеет легкие выпуклости, которые будут нежно массировать влагалище внутри, а нежная головка легко найдет точку G. Этот вибратор будет ощущаться каждой клеточкой тела и подойдет для любого проникновения!Эргономичная ручка-кольцо, благодаря которой игрушку удобно удерживать даже скользкими от смазки руками. Интуитивно понятное управление, подсветка кнопок и просто невероятное эстетическое наслаждение от пользования игрушкой!Кнопка блокировки - это удобно, если нужно взять его с собой в путешествие. До 4 часов работы на одном заряде аккумулятора. Витой мощный вибратор анатомической формы GJack2 (6 режимов).  Витой мощный вибратор анатомической формы GJack2 (6 режимов). Модель: gvibe-10301. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: бирюзовый. Материал: Bioskin (запатентованный материал с гладкостью силикона и нежностью киберкожи). Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Bioskin (запатентованный материал с гладкостью силикона и нежностью киберкожи)</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,27 +1210,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>19.8</v>
+        <v>25.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.1</v>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1261,7 +1247,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>3 презерватива с накопителем и силиконовой смазкой</t>
+          <t>вибратор, магнитная зарядка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1287,22 +1273,22 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Презервативы GANZO Ultra thin No3 Супер</t>
+          <t>Вибратор с раздвоенным клиторальным</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-16520-1299</t>
+          <t>id-21343-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1318,30 +1304,34 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16520/16520_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16520/16520_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16520/16520_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21343/21343_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21343/21343_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21343/21343_3_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO Ultra thin No3 Супер тонкие.  Презервативы GANZO Ultra thin No3 Супер тонкие. Модель: ganzo-00-00000124. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Вибраторы-кролики  одни из самых востребованных игрушек у девушек. Компания Gvibe об этом знает и создала вибратор, который вам точно понравится.Он не такой, как все. У него аж 3 мотора  в кончике ствола для стимуляции точки G и в каждом ушке клиторального отростка. Это делает его супер-эффективным в вопросе стимуляции двух наиболее чувствительных зон женского тела.Он красивый. Правда! Вибратор очень качественно выполнен, у него стильный дизайн и удобная ручка, за которую вибратор легко держать даже мокрой рукой.И еще. Он водонепроницаемый. Его можно смело погрузить в воду. Не бойтесь, у него нет отверстий, а заряжается игрушка с помощью магнитных капсул.- 3 мощных и тихих мотора- Одновременная стимуляции клитора и точки G- Сделан из инновационного материала Bioskin- Без запаха- 6 новых режимов вибрации с настраиваемой интенсивностью- 100% водонепроницаемый- До 4х часов работы на одном заряде- Магнитная зарядка- Блокировка кнопок для транспортировки (нажмите и удерживайте 2 секунды кнопку ON).Вибратор с раздвоенным клиторальным стимулятором G Rabbit (6 режимов, 3 мотора).  Вибратор с раздвоенным клиторальным стимулятором G Rabbit (6 режимов, 3 мотора). Модель: gvibe-10332. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый с золотым. Материал: Bioskin (мягкий жидкий силикон с нежной бархатистой поверхностью). Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Bioskin (мягкий жидкий силикон с нежной бархатистой поверхностью)</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
@@ -1354,27 +1344,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>19.8</v>
+        <v>26.18</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>23.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>23.8</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3.8</v>
+      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1387,7 +1381,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>3 презерватива с накопителем и силиконовой смазкой</t>
+          <t>вибратор, магнитное зарядное USB-устройство, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1407,28 +1401,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Презервативы GANZO Ultra thin No12</t>
+          <t>Анальная пробка с вибрацией на</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-16521-1299</t>
+          <t>id-19823-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1444,30 +1438,34 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16521/16521_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16521/16521_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16521/16521_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_6_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO Ultra thin No12 Супер тонкие.  Презервативы GANZO Ultra thin No12 Супер тонкие. Модель: ganzo-00-00000125. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Анальная пробка Gplug Twist, созданная специально для максимально безболезненного проникновения! Особенно рекомендуется  новичкам!Сделанная из гипоаллергенного и шелковистого на ощупь медицинского силикона, эта супер-игрушка от великобританской фирмы FT London имеет особенное строение - она закручена в мягкую спираль. Она не только легко войдет, но и великолепно отмассирует внутри все самые чувствительные зоны!У пробки лаконичный дизайн и глубокий черный цвет, поэтому она подойдет не только девушкам, но и понравится мужчинам!Пробка имеет ограничитель, за счет чего может абсолютно безопасно размещаться внутри, даже если вы находитесь в движении, так что тем, кто любит пикантные эротические развлечения, она подойдет даже для того, чтобы носить ее в себе.6 режимов вибрации, от нежно играющего до сильного, инновационный бесшумный моторчик нового поколения, 100% водонепроницаемость, и до 4 часов работы на одном заряде батареи! Зарядка аккумуляторная, от USB. Блокировка для удобства перевозки!Обратите внимание: эта анальная пробка может коннектиться с вибрирующим кольцом Gring этого же бренда - кольцо может служить пультом управления для пробки!.Анальная пробка с вибрацией на подзарядке G Plug Twist (6 режимов).  Анальная пробка с вибрацией на подзарядке G Plug Twist (6 режимов). Модель: gvibe-10356. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Элитная продукция &gt; Анальные втулки. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
@@ -1480,27 +1478,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>19.8</v>
+        <v>11.55</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.9</v>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1513,7 +1511,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>12 презервативов с накопителем и силиконовой смазкой</t>
+          <t xml:space="preserve">вибропробка, зарядное usb-устройство, инструкция, мешочек для хранения </t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1539,22 +1537,22 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Презервативы GANZO NEW CLASSIC No3</t>
+          <t>Эргономичный перезаряжаемый G-вибратор</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-16518-1299</t>
+          <t>id-21938-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1570,30 +1568,34 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16518/16518_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16518/16518_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16518/16518_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_6_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO NEW CLASSIC No3 Классические с силиконовой смазкой.  Презервативы GANZO NEW CLASSIC No3 Классические с силиконовой смазкой. Модель: ganzo-00-308005. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Gjay  достойный конкурент Gjack 2!Эргономичный дизайн, удобная ручка и модный цвет обязательно привлекут внимание и вызовут симпатию. Изготовлен вибратор из запатентованного материала Bioskin. Он экологичный, гипоаллергенный и максимально приближенный к телу человека при касании.Gjay заряжается с помощью магнитной зарядки. Он водонепроницаем и спокойно переносит игры в воде. Снабжён мощным моторчиком, который не издаёт сильного шума.В игрушке доступны 6 различных режимов вибрации с изменяемой интенсивностью.Красивая упаковка, необычный дизайн делают вибратор изысканным подарком к любому празднику.Характеристики:    Эргономичный дизайн, модный цвет.    Мощный, но тихий мотор.    6 режимов вибрации с изменяемой интенсивностью - от легких толчков до интенсивной вибрации.    Легкое управление.    Изготовлен из революционного материала Bioskin.    Без запаха.    100% водонепроницаемый.    До 4 часов работы на одном заряде батареи.    Магнитное зарядное устройство. Пожалуйста, обратите внимание, начальное время зарядки составляет 2 часа.    Блокировка включения при перевозке (нажмите ON и удерживайте 2 секунды). Эргономичный перезаряжаемый G-вибратор Gjay (6 режимов).  Эргономичный перезаряжаемый G-вибратор Gjay (6 режимов). Модель: gvibe-10431. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: ярко-розовый с золотым. Материал: Bioskin (мягк</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Bioskin (мягкий жидкий силикон с нежной бархатистой поверхностью)</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
@@ -1606,27 +1608,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>19.8</v>
+        <v>24.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3.55</v>
+      </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1639,7 +1645,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>3 презерватива с накопителем и силиконовой смазкой</t>
+          <t>вибратор, зарядное магнитное USB-устройство, мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1659,13 +1665,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1675,12 +1681,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Презервативы GANZO NEW SENSE No3</t>
+          <t>Яйцо-мастурбатор Gvibe Gegg Blue</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-16519-1299</t>
+          <t>id-25643-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1696,17 +1702,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16519/16519_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16519/16519_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16519/16519_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_7_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO NEW SENSE No3 Ультратонкие.  Презервативы GANZO NEW SENSE No3 Ультратонкие. Модель: ganzo-00-308009. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Blue.  Яйцо-мастурбатор Gvibe Gegg Blue. Модель: gvibe-10523. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: голубой. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1719,7 +1725,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>нежный TPE (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
@@ -1732,27 +1742,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>19.8</v>
+        <v>7.15</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5</v>
+      </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1765,7 +1775,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 презерватива с силиконовой смазкой </t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1785,13 +1795,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1801,12 +1811,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Презервативы GANZO NEW EXTASE No3</t>
+          <t>Яйцо-мастурбатор Gvibe Gegg Pink</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-16522-1299</t>
+          <t>id-25640-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1822,17 +1832,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16522/16522_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16522/16522_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16522/16522_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_7_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO NEW EXTASE No3 Точечно-ребристые.  Презервативы GANZO NEW EXTASE No3 Точечно-ребристые. Модель: ganzo-00-308011. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Pink.  Яйцо-мастурбатор Gvibe Gegg Pink. Модель: gvibe-10530. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: розовый. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1845,7 +1855,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>нежный TPE (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
@@ -1858,27 +1872,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>19.8</v>
+        <v>7.15</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5</v>
+      </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1891,7 +1905,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>3 презерватива с накопителем и силиконовой смазкой</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1911,28 +1925,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Презервативы GANZO классические, 12 шт.</t>
+          <t>Яйцо-мастурбатор Gvibe Gegg Yellow</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-16086-1299</t>
+          <t>id-25641-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1948,17 +1962,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16086/16086_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_7_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO классические, 12 шт. . Презервативы GANZO классические, 12 шт.  Модель: ganzo-10027. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Yellow.  Яйцо-мастурбатор Gvibe Gegg Yellow. Модель: gvibe-10547. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: желтый. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1971,7 +1985,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>нежный TPE (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
@@ -1986,15 +2004,25 @@
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.5</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>5</v>
+      </c>
       <c r="AH12" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2007,7 +2035,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>12 шт.</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2027,13 +2055,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2043,12 +2071,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Презервативы GANZO SENSE No12</t>
+          <t>Яйцо-мастурбатор Gvibe Gegg Black</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-16967-1299</t>
+          <t>id-25639-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -2064,17 +2092,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16967/16967_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_7_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Особо тонкие презервативы Ganzo #sense с накопителем в обильной смазке на водной основе. Презервативы сохранят естественность ощущений, не снижая уровня защиты. Не рекомендуется использовать ректально.Характеристики: Материал презерватива: латекс. Количество презервативов: 12. Длина презерватива: 18 см. Ширина презерватива: 5,2 см. Толщина стенки презерватива: 0,05 мм. Производитель: Великобритания.Товар сертифицирован.Презервативы GANZO SENSE No12 Ультратонкие.  Презервативы GANZO SENSE No12 Ультратонкие. Модель: ganzo-11010. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Black.  Яйцо-мастурбатор Gvibe Gegg Black. Модель: gvibe-10561. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: черный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2087,7 +2115,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>нежный TPE (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
@@ -2100,27 +2132,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>19.8</v>
+        <v>7.15</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5</v>
+      </c>
       <c r="AH13" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2133,7 +2165,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>12 презерватива с накопителем и силиконовой смазкой</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2153,13 +2185,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2169,12 +2201,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Презервативы GANZO LONG LOVE No3 с</t>
+          <t>Мастурбатор вагина-анус Snug Double</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-16530-1299</t>
+          <t>id-26576-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2190,17 +2222,17 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16530/16530_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16530/16530_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16530/16530_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_4_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Презервативы Ganzo Long Love помогают решить проблему преждевременной эякуляции. Силиконовая смазка с добавлением анестетика бензокаина (benzocaine) снижает чувствительность рецепторов полового члена, не убавляя при этом силу возбуждения. В результате поддержки Ganzo Long Love половой акт становится продолжительнее и значимее. Характеристики:  Материал презерватива: латекс.  Количество презервативов: 3.  Длина презерватива: 18 см.  Ширина презерватива: 5,2 см.  Толщина стенки презерватива: 0,06 мм.  Производитель: Великобритания. Товар сертифицирован.Презервативы GANZO LONG LOVE No3 с анестетиком.  Презервативы GANZO LONG LOVE No3 с анестетиком. Модель: ganzo-11014. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Этот универсальный мастурбатор из коллекции Bangers от Hidden Desire имеет как вагинальное, так и анальное отверстие. Позволяет вам переключаться между различными типами стимуляции в зависимости от того, какого вида непослушных развлечений вы жаждете. Обе плотные, приятные и сенсационно текстурированные: каждая дырочка побалует вашу мужественность умопомрачительной стимуляцией. Snug Double Fucker Pussy . Ass, изготовленный из высококачественного реалистичного TPR и обладающий очень реалистичной эстетикой, - это лучший выбор для мастурбации. Мастурбатор вагина-анус Snug Double Fucker Pussy.Ass.  Мастурбатор вагина-анус Snug Double Fucker Pussy.Ass. Модель: hiddde-16935. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2213,7 +2245,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>термопластичный эластомер</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
@@ -2226,12 +2262,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
         <v>19.8</v>
       </c>
@@ -2259,7 +2291,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>3 презерватива с накопителем и силиконовой смазкой</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2279,32 +2311,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Плетки эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GANZO</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Презервативы GANZO RIBS No12 Ребристые</t>
+          <t>Кожаная плетка Handy Whip</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-16529-1299</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>id-26604-1299</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>99999</v>
@@ -2316,17 +2356,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16529/16529_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16529/16529_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16529/16529_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26604/26604_1_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы GANZO RIBS No12 Ребристые.  Презервативы GANZO RIBS No12 Ребристые. Модель: ganzo-21012. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Батареек нет в комплекте. Бренд: GANZO. </t>
+          <t xml:space="preserve">Handy Whip - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческих игр БДСМ. Кнут изготовлен из высококачественной кожи и имеет прочную ручку с хромированной петлей. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Кожаная плетка Handy Whip.  Кожаная плетка Handy Whip. Модель: hiddde-17013. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: кожа. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2339,7 +2379,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>кожа</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
@@ -2352,21 +2396,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>18</v>
-      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
@@ -2385,7 +2419,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>12 презерватива с накопителем и силиконовой смазкой</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2405,13 +2439,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Плетки эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2421,16 +2455,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Витой мощный вибратор анатомической</t>
+          <t>Черная кожаная плетка Slim Whip</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-18369-1299</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t>id-26605-1299</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>54-56</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>99999</v>
@@ -2442,32 +2484,32 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18369/18369_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26605/26605_1_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Второе поколение GJack - улучшенный анатомический вибратор GJack 2 - от известнейшей в мире секс игрушек великобританской фирмы Fun Toys (FT London)! Новинка 2017 года.GJack2 сделан из уникального и не повторяющегося больше ни в каких игрушках запатентованного материала Bioskin.  Это гипоаллергенное, не имеющее запаха покрытие премиум-качества, в котором соединилась нежность тактильного ощущения от киберкожи и идеальная гладкость великолепно скользящего силикона. Когда держишь эту игрушку - ее просто не хочется выпускать из рук!Gjack 2 имеет шесть режимов разнообразной вибрации - от легкого подразнивания до сильных толчков, вибрация проходит по всей длине ствола, доставляя наслаждение каждой клеточке тела. . Мощный, но очень тихий мотор, аккумуляторная зарядка на магнитных капсулах и полная водонепроницаемость.Продуманный анатомический дизайн. Слегка загнутый ствол по всей длине имеет легкие выпуклости, которые будут нежно массировать влагалище внутри, а нежная головка легко найдет точку G. Этот вибратор будет ощущаться каждой клеточкой тела и подойдет для любого проникновения!Эргономичная ручка-кольцо, благодаря которой игрушку удобно удерживать даже скользкими от смазки руками. Интуитивно понятное управление, подсветка кнопок и просто невероятное эстетическое наслаждение от пользования игрушкой!Кнопка блокировки - это удобно, если нужно взять его с собой в путешествие. До 4 часов работы на одном заряде аккумулятора. Витой мощный вибратор анатомической формы GJack2 (6 режимов).  Витой мощный вибратор анатомической формы GJack2 (6 режимов). Модель: gvibe-10301. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: бирюзовый. Материал: Bioskin (запатентованный материал с гладкостью силикона и нежностью киберкожи). Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Slim Whip - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческой игры в БДСМ. Кнут изготовлен из высококачественной кожи и имеет прочную хромированную ручку. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Черная кожаная плетка Slim Whip.  Черная кожаная плетка Slim Whip. Модель: hiddde-17016. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: высокачественная кожа. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Bioskin (запатентованный материал с гладкостью силикона и нежностью киберкожи)</t>
+          <t>высокачественная кожа</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2484,29 +2526,15 @@
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2519,7 +2547,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>вибратор, магнитная зарядка, фирменный мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2539,32 +2567,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Вибратор с раздвоенным клиторальным</t>
+          <t>Веревка для связывания Bondage Rope 5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-21343-1299</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>id-26601-1299</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>99999</v>
@@ -2576,32 +2612,32 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21343/21343_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21343/21343_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21343/21343_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26601/26601_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26601/26601_2_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибраторы-кролики  одни из самых востребованных игрушек у девушек. Компания Gvibe об этом знает и создала вибратор, который вам точно понравится.Он не такой, как все. У него аж 3 мотора  в кончике ствола для стимуляции точки G и в каждом ушке клиторального отростка. Это делает его супер-эффективным в вопросе стимуляции двух наиболее чувствительных зон женского тела.Он красивый. Правда! Вибратор очень качественно выполнен, у него стильный дизайн и удобная ручка, за которую вибратор легко держать даже мокрой рукой.И еще. Он водонепроницаемый. Его можно смело погрузить в воду. Не бойтесь, у него нет отверстий, а заряжается игрушка с помощью магнитных капсул.- 3 мощных и тихих мотора- Одновременная стимуляции клитора и точки G- Сделан из инновационного материала Bioskin- Без запаха- 6 новых режимов вибрации с настраиваемой интенсивностью- 100% водонепроницаемый- До 4х часов работы на одном заряде- Магнитная зарядка- Блокировка кнопок для транспортировки (нажмите и удерживайте 2 секунды кнопку ON).Вибратор с раздвоенным клиторальным стимулятором G Rabbit (6 режимов, 3 мотора).  Вибратор с раздвоенным клиторальным стимулятором G Rabbit (6 режимов, 3 мотора). Модель: gvibe-10332. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый с золотым. Материал: Bioskin (мягкий жидкий силикон с нежной бархатистой поверхностью). Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Bondage Rope - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческой игры в БДСМ. Веревка изготовлена ​​из хлопка высшего сорта. предотвращая раздражение и предлагая безопасную и удобную форму интимного веселья. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Веревка для связывания Bondage Rope (5 м).  Веревка для связывания Bondage Rope (5 м). Модель: hiddde-17021. БДСМ. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: хлопок. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Bioskin (мягкий жидкий силикон с нежной бархатистой поверхностью)</t>
+          <t>хлопок</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2618,29 +2654,15 @@
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>23.8</v>
-      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2653,7 +2675,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>вибратор, магнитное зарядное USB-устройство, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2673,13 +2695,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2689,16 +2711,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Анальная пробка с вибрацией на</t>
+          <t>Бондажная веревка Bondage Rope (10 м)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-19823-1299</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+          <t>id-26602-1299</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>99999</v>
@@ -2710,32 +2740,32 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19823/19823_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26602/26602_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26602/26602_2_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Gplug Twist, созданная специально для максимально безболезненного проникновения! Особенно рекомендуется  новичкам!Сделанная из гипоаллергенного и шелковистого на ощупь медицинского силикона, эта супер-игрушка от великобританской фирмы FT London имеет особенное строение - она закручена в мягкую спираль. Она не только легко войдет, но и великолепно отмассирует внутри все самые чувствительные зоны!У пробки лаконичный дизайн и глубокий черный цвет, поэтому она подойдет не только девушкам, но и понравится мужчинам!Пробка имеет ограничитель, за счет чего может абсолютно безопасно размещаться внутри, даже если вы находитесь в движении, так что тем, кто любит пикантные эротические развлечения, она подойдет даже для того, чтобы носить ее в себе.6 режимов вибрации, от нежно играющего до сильного, инновационный бесшумный моторчик нового поколения, 100% водонепроницаемость, и до 4 часов работы на одном заряде батареи! Зарядка аккумуляторная, от USB. Блокировка для удобства перевозки!Обратите внимание: эта анальная пробка может коннектиться с вибрирующим кольцом Gring этого же бренда - кольцо может служить пультом управления для пробки!.Анальная пробка с вибрацией на подзарядке G Plug Twist (6 режимов).  Анальная пробка с вибрацией на подзарядке G Plug Twist (6 режимов). Модель: gvibe-10356. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Элитная продукция &gt; Анальные втулки. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Bondage Rope - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческой игры в БДСМ. Веревка изготовлена ​​из хлопка высшего сорта. предотвращая раздражение и предлагая безопасную и удобную форму интимного веселья. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Бондажная веревка Bondage Rope (10 м).  Бондажная веревка Bondage Rope (10 м). Модель: hiddde-17022. БДСМ. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: хлопок. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>хлопок</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2752,25 +2782,15 @@
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2783,7 +2803,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t xml:space="preserve">вибропробка, зарядное usb-устройство, инструкция, мешочек для хранения </t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2803,28 +2823,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Эргономичный перезаряжаемый G-вибратор</t>
+          <t>Cупервлажный мастурбатор Super Wet</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-21938-1299</t>
+          <t>id-26603-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2840,32 +2860,32 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21938/21938_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_5_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gjay  достойный конкурент Gjack 2!Эргономичный дизайн, удобная ручка и модный цвет обязательно привлекут внимание и вызовут симпатию. Изготовлен вибратор из запатентованного материала Bioskin. Он экологичный, гипоаллергенный и максимально приближенный к телу человека при касании.Gjay заряжается с помощью магнитной зарядки. Он водонепроницаем и спокойно переносит игры в воде. Снабжён мощным моторчиком, который не издаёт сильного шума.В игрушке доступны 6 различных режимов вибрации с изменяемой интенсивностью.Красивая упаковка, необычный дизайн делают вибратор изысканным подарком к любому празднику.Характеристики:    Эргономичный дизайн, модный цвет.    Мощный, но тихий мотор.    6 режимов вибрации с изменяемой интенсивностью - от легких толчков до интенсивной вибрации.    Легкое управление.    Изготовлен из революционного материала Bioskin.    Без запаха.    100% водонепроницаемый.    До 4 часов работы на одном заряде батареи.    Магнитное зарядное устройство. Пожалуйста, обратите внимание, начальное время зарядки составляет 2 часа.    Блокировка включения при перевозке (нажмите ON и удерживайте 2 секунды). Эргономичный перезаряжаемый G-вибратор Gjay (6 режимов).  Эргономичный перезаряжаемый G-вибратор Gjay (6 режимов). Модель: gvibe-10431. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: ярко-розовый с золотым. Материал: Bioskin (мягкий жидкий силикон с нежной бархатистой поверхностью). Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Вам нравится плотная, аккуратная и реалистичная мастурбация? Тогда вам понравится Super Wet Pocket Pussy из коллекции Bangers от Hidden Desire! Этот ручной мастурбатор изготовлен из ультра-реалистичной водяной кожи: уникального материала TPR, который кажется очень гладким и скользким, когда вы добавляете воду. Компактная Super Wet Pocket Pussy с реалистичным отверстием и плотным внутренним каналом готова к естественному удовольствию на ходу, когда и где вы пожелаете! (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, только не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятности . .).Cупервлажный мастурбатор Super Wet Pocket Pussy.  Cупервлажный мастурбатор Super Wet Pocket Pussy. Модель: hiddde-17030. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Bioskin (мягкий жидкий силикон с нежной бархатистой поверхностью)</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2883,27 +2903,23 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>24.75</v>
+        <v>14.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.5</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>3.905</v>
+        <v>8.25</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.55</v>
+        <v>7.5</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
@@ -2917,7 +2933,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>вибратор, зарядное магнитное USB-устройство, мешочек для хранения, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2943,7 +2959,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2953,12 +2969,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Яйцо-мастурбатор Gvibe Gegg Blue</t>
+          <t>Супер-влажный мастурбатор Super Wet</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-25643-1299</t>
+          <t>id-26575-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2974,17 +2990,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25643/25643_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_5_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Blue.  Яйцо-мастурбатор Gvibe Gegg Blue. Модель: gvibe-10523. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: голубой. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Мастурбатор, который мужчины оценят по достоинству. Простой снаружи, но крутой по функционалу мастурбатор подарит вам супер-реалистичные ощущения.   Игрушка сделана из необычного материала Water Skin, который при контакте с водой становится ещё нежнее. Если ты сходишь с ума по мокрой женской киске, то идеальный мастурбатор для тебя. Некоторые мужчины говорят, что он настолько влажный, что это, кажется, даже лучше, чем секс с женщиной.   Удобная форма, которая не скользит в руке и позволяет регулировать силу стимуляции. Чувственный внутренний рельеф подарит максимальное удовольствие.   Всё просто и приятно. Главное, намного удобнее, чем делать это рукой. А иногда, даже приятнее чем секс. Супер-влажный мастурбатор Super Wet Travel Beaver, 17.8 см (телесный).  Супер-влажный мастурбатор Super Wet Travel Beaver, 17.8 см (телесный). Модель: hiddde-17031. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2999,7 +3015,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>нежный TPE (вторая кожа)</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -3017,23 +3033,23 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>7.15</v>
+        <v>14.85</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>5.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
@@ -3073,7 +3089,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3083,12 +3099,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Яйцо-мастурбатор Gvibe Gegg Pink</t>
+          <t>Мастурбатор-попка Fat Ass Fucker Vibr.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-25640-1299</t>
+          <t>id-26580-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -3104,17 +3120,17 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25640/25640_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_5_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Pink.  Яйцо-мастурбатор Gvibe Gegg Pink. Модель: gvibe-10530. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: розовый. Матери</t>
+          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Fat Ass Fucker Vibrating из коллекции Bangers от Hidden Desire!Изготовлен из качественного TPR, приятный на ощупь и прочный, что позволяет бесконечные сеансы интимной игры. Fat Ass Fucker Vibrating имеет два реалистичных отверстия: вагинальный и анальный. Включите включенные в комплект флюиды пули и погрузитесь в интенсивные волны чистого удовольствия, глубоко в сенсационных складках Fat Ass Fucker. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Мастурбатор-попка Fat Ass Fucker Vibr. . Мастурбатор-попка Fat Ass Fucker Vibr.  Модель: hiddde-17034. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3129,7 +3145,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>нежный TPE (вторая кожа)</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3146,25 +3162,15 @@
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>5</v>
-      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3177,7 +3183,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мастурбатор,пульс с 2 пульками</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3203,7 +3209,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3213,12 +3219,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Яйцо-мастурбатор Gvibe Gegg Yellow</t>
+          <t>Мастурбатор с вибрацией Wet Pussy</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-25641-1299</t>
+          <t>id-26581-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3234,17 +3240,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25641/25641_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_5_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Yellow.  Яйцо-мастурбатор Gvibe Gegg Yellow. Модель: gvibe-10547. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: желтый. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Wet Pussy Galore! Изготовлен из качественного TPR, приятный на ощупь и прочный, что позволяет бесконечные сеансы интимной игры. Wet Pussy Galore Vibrating имеет два реалистичных отверстия: вагинальный и анальный. Включите включенные в комплект вибрации пули и погрузитесь в интенсивные волны чистого удовольствия, глубоко в очаровательных складках Wet Pussy Galore. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Мастурбатор с вибрацией Wet Pussy Galore Vibr. . Мастурбатор с вибрацией Wet Pussy Galore Vibr.  Модель: hiddde-17035. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3259,7 +3265,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>нежный TPE (вторая кожа)</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3277,24 +3283,20 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>7.15</v>
+        <v>18.15</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>5</v>
-      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3307,7 +3309,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мастурбатор, пульс с 2 пульками</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3333,7 +3335,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3343,12 +3345,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Яйцо-мастурбатор Gvibe Gegg Black</t>
+          <t>Телесный мастурбатор вагина и анус с</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-25639-1299</t>
+          <t>id-26583-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3364,17 +3366,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25639/25639_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_5_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gvibe Gegg  это миниатюрный мастурбатор, который создан дарить мужчинам удовольствие. Уникальные текстуры не были ранее представлены ни в одной подобной игрушке.Gegg мягкий и гладкий снаружи, но рельефный внутри. Объёмные 3D-грани будут создавать интенсивные ощущения, массируя каждый сантиметр головки и ствола. Повышенная эластичность материала делает процесс максимально комфортным.Мастурбатор идеален как для соло-игры, так и для парной прелюдии. Стимуляцию игрушкой можно сочетать с оральными ласками или петтингом. Уникальные текстуры мастурбатора повышают чувствительность, приводя к новым необычным ощущениям и яркой кульминации!Gegg от Gvibe подойдёт мужчинам, которые ищут компактный и необычный мастурбатор. Маленький размер позволяет брать яйцо с собой в поездку, а форма не даст повода подумать, что вы везёте с собой секс-игрушку.А еще его можно использовать для фингеринга. Это когда игрушку выворачиваешь рельефом наружу, надеваешь на палец и стимулируешь влагалище партнерши. Таким образом, точка G, которую вы, возможно, еще не отыскали, найдется очень быстро.С игрушкой совместимы лубриканты на водной основе. Достаньте яйцо из пластиковой упаковки и налейте смазку внутрь. После использования тщательно промойте водой и воспользуйтесь специальным очистителем. Яйцо-мастурбатор Gvibe Gegg Black.  Яйцо-мастурбатор Gvibe Gegg Black. Модель: gvibe-10561. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: черный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Wet Pussy Galore! Изготовлен из качественного TPR, приятный на ощупь и прочный, что позволяет бесконечные сеансы интимной игры. Wet Pussy Galore Vibrating имеет два реалистичных отверстия: вагинальный и анальный. Включите включенные в комплект вибрации пули и погрузитесь в интенсивные волны чистого удовольствия, глубоко в очаровательных складках Wet Pussy Galore. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Телесный мастурбатор вагина и анус с вибрацией Hot Honey Rider Vibr.  Телесный мастурбатор вагина и анус с вибрацией Hot Honey Rider Vibr. Модель: hiddde-17036light. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3389,7 +3391,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>нежный TPE (вторая кожа)</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3406,25 +3408,15 @@
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>5</v>
-      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3437,7 +3429,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мастурбатор,пульт с 2 пульками</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3473,12 +3465,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Мастурбатор вагина-анус Snug Double</t>
+          <t>Эластичный вибрирующий мастурбатор</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-26576-1299</t>
+          <t>id-26600-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3494,17 +3486,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26576/26576_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_5_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот универсальный мастурбатор из коллекции Bangers от Hidden Desire имеет как вагинальное, так и анальное отверстие. Позволяет вам переключаться между различными типами стимуляции в зависимости от того, какого вида непослушных развлечений вы жаждете. Обе плотные, приятные и сенсационно текстурированные: каждая дырочка побалует вашу мужественность умопомрачительной стимуляцией. Snug Double Fucker Pussy . Ass, изготовленный из высококачественного реалистичного TPR и обладающий очень реалистичной эстетикой, - это лучший выбор для мастурбации. Мастурбатор вагина-анус Snug Double Fucker Pussy.Ass.  Мастурбатор вагина-анус Snug Double Fucker Pussy.Ass. Модель: hiddde-16935. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Horny Fuck Slut Vibrating из коллекции Bangers от Hidden Desire!. Изготовлен из качественного TPR, приятный на ощупь и прочный дизайн, позволяющий бесконечные сеансы интимной игры. У Horny Fuck Slut Vibrating есть два реалистичных отверстия: вагинальный и анальный. Включите включенные вибрации пули и погрузитесь в интенсивные волны жесткого удовольствия, глубоко в сексуальных складках Horny Fuck Slut. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, только не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятности . .).Эластичный вибрирующий мастурбатор Horny Fuck Slut Vibrating.  Эластичный вибрирующий мастурбатор Horny Fuck Slut Vibrating. Модель: hiddde-17038. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3537,13 +3529,13 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>19.8</v>
+        <v>24.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -3563,7 +3555,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мастурбатор, пульт с 2 пульками</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3583,7 +3575,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3594,29 +3586,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Кожаная плетка Handy Whip</t>
+          <t>Мастурбатор-анус в форме пениса Hidden</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-26604-1299</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-26578-1299</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>99999</v>
@@ -3628,17 +3612,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26604/26604_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_5_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Handy Whip - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческих игр БДСМ. Кнут изготовлен из высококачественной кожи и имеет прочную ручку с хромированной петлей. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Кожаная плетка Handy Whip.  Кожаная плетка Handy Whip. Модель: hiddde-17013. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: кожа. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Вам понравится Big Dick Dipper из коллекции Bangers от Hidden Desire! Этот ручной анальный мастурбатор изготовлен из ультра-реалистичного TPR, который на ощупь невероятно шелковистый. Благодаря детализированному анальному отверстию, сочным складкам и невероятно плотному поглаживанию качественный Big Dick Dipper готов к захватывающему удовольствию на ходу, когда и где бы вы ни пожелали! (Наши эксперты говорят, что эта игрушка премиум-класса может показаться даже лучше, чем настоящая, просто не говорите об этом своему партнеру, иначе у вас могут возникнуть проблемы . .).Мастурбатор-анус в форме пениса Hidden Desire Big Dick Dipper.  Мастурбатор-анус в форме пениса Hidden Desire Big Dick Dipper. Модель: hiddde-17041. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3653,7 +3637,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>кожа</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3670,9 +3654,15 @@
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="Y25" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
@@ -3711,7 +3701,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3722,29 +3712,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Черная кожаная плетка Slim Whip</t>
+          <t>Эрекционное кольцо с петлей для мошонки</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-26605-1299</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>XXL</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>54-56</t>
-        </is>
-      </c>
+          <t>id-26598-1299</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>99999</v>
@@ -3756,17 +3738,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26605/26605_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26598/26598_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26598/26598_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26598/26598_3_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Slim Whip - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческой игры в БДСМ. Кнут изготовлен из высококачественной кожи и имеет прочную хромированную ручку. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Черная кожаная плетка Slim Whip.  Черная кожаная плетка Slim Whip. Модель: hiddde-17016. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: высокачественная кожа. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Кольцо Stallion C-Ring от Hidden Desire - это высококачественное кольцо. Восьмиугольное кольцо изготовлено из мягкого и сверхэластичного силикона премиум-класса. Обеспечивает плотную посадку там, где это наиболее важно. Работайте усерднее и дольше с этим незаменимым дизайном и исследуйте свои скрытые желания с помощью этого прочного и высококачественного фетиш-продукта. Эрекционное кольцо с петлей для мошонки Soft Silicone Stallion C-Ring.  Эрекционное кольцо с петлей для мошонки Soft Silicone Stallion C-Ring. Модель: hiddde-17043. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: бархатистый силикон. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3781,7 +3763,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>высокачественная кожа</t>
+          <t>бархатистый силикон</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3796,8 +3778,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7.15</v>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -3839,7 +3825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3850,29 +3836,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Веревка для связывания Bondage Rope 5</t>
+          <t>Эрекционное кольцо Soft Silicone Jock</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-26601-1299</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-26599-1299</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>99999</v>
@@ -3884,17 +3862,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26601/26601_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26601/26601_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26599/26599_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26599/26599_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26599/26599_3_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bondage Rope - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческой игры в БДСМ. Веревка изготовлена ​​из хлопка высшего сорта. предотвращая раздражение и предлагая безопасную и удобную форму интимного веселья. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Веревка для связывания Bondage Rope (5 м).  Веревка для связывания Bondage Rope (5 м). Модель: hiddde-17021. БДСМ. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: хлопок. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Jock C-Ring от Hidden Desire - это высококачественное кольцо. Это двойное кольцо изготовлено из мягкого и сверхэластичного силикона премиум-класса. Обеспечивает плотную посадку там, где это наиболее важно. Работайте усерднее и дольше с этим незаменимым дизайном и исследуйте свои скрытые желания с помощью этого прочного и высококачественного фетиш-продукта. Эрекционное кольцо Soft Silicone Jock C-Ring.  Эрекционное кольцо Soft Silicone Jock C-Ring. Модель: hiddde-17044. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: бархатистый силикон. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3909,7 +3887,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>хлопок</t>
+          <t>бархатистый силикон</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3933,8 +3911,12 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AF27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7</v>
+      </c>
       <c r="AH27" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3967,7 +3949,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3978,29 +3960,21 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Бондажная веревка Bondage Rope (10 м)</t>
+          <t>Мастурбатор-вагина Mega Tight Fucker,</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-26602-1299</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-26574-1299</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>99999</v>
@@ -4012,17 +3986,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26602/26602_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26602/26602_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_4_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bondage Rope - это высококачественный аксессуар для взрослых, идеально подходящий для приключенческой игры в БДСМ. Веревка изготовлена ​​из хлопка высшего сорта. предотвращая раздражение и предлагая безопасную и удобную форму интимного веселья. Позвольте себе раскрыть свои скрытые желания с этим незаменимым фетиш-продуктом. Бондажная веревка Bondage Rope (10 м).  Бондажная веревка Bondage Rope (10 м). Модель: hiddde-17022. БДСМ. БДСМ товары и фетиш &gt; Веревки, скотч для тела. Цвет: красный. Материал: хлопок. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Реалистичный мастурбатор, имитирующий вагину. Передняя сторона девайса выглядит как вход в возбужденную женскую вульву с полураскрытыми половыми губками. Внутренний тоннель обладает рельефом, эффективно ласкающим пенис и вызывающим очень насыщенные интимные переживания. Девайс изготовлен из мягкого и податливого термопластичного эластомера, который похож на человеческую кожу. Если добавить любрикант на водной основе, переживания почти неотличимы от реального сношения. Намокая, материал становится еще нежнее. Длина 14 см. Мастурбатор-вагина Mega Tight Fucker, телесный.  Мастурбатор-вагина Mega Tight Fucker, телесный. Модель: hiddde-Sk17033. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4037,7 +4011,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>хлопок</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -4054,9 +4028,15 @@
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>14</v>
+      </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
@@ -4095,32 +4075,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>HUSTLER</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cупервлажный мастурбатор Super Wet</t>
+          <t>Купальник с юбочкой вишневая</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-26603-1299</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t>id-6889-1299</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>99999</v>
@@ -4132,17 +4120,17 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26603/26603_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6889/6889_1_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравится плотная, аккуратная и реалистичная мастурбация? Тогда вам понравится Super Wet Pocket Pussy из коллекции Bangers от Hidden Desire! Этот ручной мастурбатор изготовлен из ультра-реалистичной водяной кожи: уникального материала TPR, который кажется очень гладким и скользким, когда вы добавляете воду. Компактная Super Wet Pocket Pussy с реалистичным отверстием и плотным внутренним каналом готова к естественному удовольствию на ходу, когда и где вы пожелаете! (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, только не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятности . .).Cупервлажный мастурбатор Super Wet Pocket Pussy.  Cупервлажный мастурбатор Super Wet Pocket Pussy. Модель: hiddde-17030. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Купальник-бикини с лифом-треугольниками (завязывается на шее и на спине) в комплекте с низкими трусиками стрингами. В наборе к бикини расклешенная юбочка. Ткань с рисунком вишенками. Купальник с юбочкой (вишневая расцветка) SM.  Купальник с юбочкой (вишневая расцветка) SM. Модель: hustler-22310-123sm. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Бикини, купальники. Цвет: черный с розовым. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: HUSTLER. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4157,7 +4145,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>термопластичный эластомер</t>
+          <t>82% нейлон, 18% спандекс</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -4174,25 +4162,15 @@
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>13</v>
-      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4205,7 +4183,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Лиф, стринги, юбочка</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4225,28 +4203,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Супер-влажный мастурбатор Super Wet</t>
+          <t>Возбуждающий интимный гель для женщин</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-26575-1299</t>
+          <t>id-25832-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4262,17 +4240,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26575/26575_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25832/25832_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25832/25832_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25832/25832_3_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мастурбатор, который мужчины оценят по достоинству. Простой снаружи, но крутой по функционалу мастурбатор подарит вам супер-реалистичные ощущения.   Игрушка сделана из необычного материала Water Skin, который при контакте с водой становится ещё нежнее. Если ты сходишь с ума по мокрой женской киске, то идеальный мастурбатор для тебя. Некоторые мужчины говорят, что он настолько влажный, что это, кажется, даже лучше, чем секс с женщиной.   Удобная форма, которая не скользит в руке и позволяет регулировать силу стимуляции. Чувственный внутренний рельеф подарит максимальное удовольствие.   Всё просто и приятно. Главное, намного удобнее, чем делать это рукой. А иногда, даже приятнее чем секс. Супер-влажный мастурбатор Super Wet Travel Beaver, 17.8 см (телесный).  Супер-влажный мастурбатор Super Wet Travel Beaver, 17.8 см (телесный). Модель: hiddde-17031. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Мы знаем, что бывают дни, когда мы не хотим заниматься сексом, или периоды, когда наше либидо снижается из-за лекарств, депрессии или даже стресса.Excitation - это продукт, который помогает разбудить женский сексуальный аппетит, его можно использовать двумя разными способами: перед половым актом для увеличения полового влечения или ежедневное употребление для увеличения либидо.Изготовлен из женьшеня, известного растения, которое стимулирует выработку эстрогена, непосредственно влияющего на либидо и сексуальное желание.  Рекомендации перед половым актом: нанесите на клитор или влагалище за несколько минут до секса.Рекомендации по ежедневному применению: нанесите на клитор или влагалище перед сном. Возбуждающий интимный гель для женщин Excitation (15 мл).  Возбуждающий интимный гель для женщин Excitation (15 мл). Модель: intt-ex0001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Косметика. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -4285,44 +4263,34 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>термопластичный эластомер</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr"/>
+          <t>15 мл</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>7</v>
-      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4355,28 +4323,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Мастурбатор-попка Fat Ass Fucker Vibr.</t>
+          <t>Возбуждающее массажное масло с</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-26580-1299</t>
+          <t>id-25835-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4392,17 +4360,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26580/26580_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25835/25835_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25835/25835_2_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Fat Ass Fucker Vibrating из коллекции Bangers от Hidden Desire!Изготовлен из качественного TPR, приятный на ощупь и прочный, что позволяет бесконечные сеансы интимной игры. Fat Ass Fucker Vibrating имеет два реалистичных отверстия: вагинальный и анальный. Включите включенные в комплект флюиды пули и погрузитесь в интенсивные волны чистого удовольствия, глубоко в сенсационных складках Fat Ass Fucker. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Мастурбатор-попка Fat Ass Fucker Vibr. . Мастурбатор-попка Fat Ass Fucker Vibr.  Модель: hiddde-17034. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Возбуждающее массажное масло со вкусом и ароматом кофе дарит легкое ощущение тепла и сладости, его можно использовать при эротическом массаже, оральных ласках и проникновении. Способ применения: нанесите продукт на все желаемые участки тела и предайтесь любви. . Возбуждающее массажное масло с согревающим эффектом и ароматом кофе Coffee (30мл).  Возбуждающее массажное масло с согревающим эффектом и ароматом кофе Coffee (30мл). Модель: intt-mg0005. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4415,21 +4383,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>термопластичный эластомер</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -4455,7 +4423,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>мастурбатор,пульс с 2 пульками</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4475,28 +4443,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Мастурбатор с вибрацией Wet Pussy</t>
+          <t>Жидкий вибратор с согревающим эффектом</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-26581-1299</t>
+          <t>id-25827-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4512,17 +4480,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26581/26581_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25827/25827_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25827/25827_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25827/25827_3_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Wet Pussy Galore! Изготовлен из качественного TPR, приятный на ощупь и прочный, что позволяет бесконечные сеансы интимной игры. Wet Pussy Galore Vibrating имеет два реалистичных отверстия: вагинальный и анальный. Включите включенные в комплект вибрации пули и погрузитесь в интенсивные волны чистого удовольствия, глубоко в очаровательных складках Wet Pussy Galore. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Мастурбатор с вибрацией Wet Pussy Galore Vibr. . Мастурбатор с вибрацией Wet Pussy Galore Vibr.  Модель: hiddde-17035. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Клубничные вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус клубники не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и ароматом клубники Vibration! Strawberry (15 мл).  Жидкий вибратор с согревающим эффектом и ароматом клубники Vibration! Strawberry (15 мл). Модель: intt-vib0001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4535,34 +4503,28 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>термопластичный эластомер</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
+          <t>15 мл</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
@@ -4581,7 +4543,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>мастурбатор, пульс с 2 пульками</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4601,28 +4563,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Телесный мастурбатор вагина и анус с</t>
+          <t>Жидкий вибратор с охлаждающим эффектом</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-26583-1299</t>
+          <t>id-25825-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4638,17 +4600,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26583/26583_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25825/25825_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25825/25825_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25825/25825_3_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Wet Pussy Galore! Изготовлен из качественного TPR, приятный на ощупь и прочный, что позволяет бесконечные сеансы интимной игры. Wet Pussy Galore Vibrating имеет два реалистичных отверстия: вагинальный и анальный. Включите включенные в комплект вибрации пули и погрузитесь в интенсивные волны чистого удовольствия, глубоко в очаровательных складках Wet Pussy Galore. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Телесный мастурбатор вагина и анус с вибрацией Hot Honey Rider Vibr.  Телесный мастурбатор вагина и анус с вибрацией Hot Honey Rider Vibr. Модель: hiddde-17036light. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Морозные вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус мяты не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с охлаждающим эффектом Vibration! Ice (15 мл).  Жидкий вибратор с охлаждающим эффектом Vibration! Ice (15 мл). Модель: intt-vib0002. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4661,21 +4623,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>термопластичный эластомер</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>15 мл</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -4701,7 +4663,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>мастурбатор,пульт с 2 пульками</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4721,28 +4683,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Эластичный вибрирующий мастурбатор</t>
+          <t>Жидкий вибратор с согревающим эффектом</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-26600-1299</t>
+          <t>id-25829-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4758,17 +4720,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26600/26600_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25829/25829_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25829/25829_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25829/25829_1_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравятся большие, смелые и супер реалистичные мастурбаторы? Тогда вам понравится Horny Fuck Slut Vibrating из коллекции Bangers от Hidden Desire!. Изготовлен из качественного TPR, приятный на ощупь и прочный дизайн, позволяющий бесконечные сеансы интимной игры. У Horny Fuck Slut Vibrating есть два реалистичных отверстия: вагинальный и анальный. Включите включенные вибрации пули и погрузитесь в интенсивные волны жесткого удовольствия, глубоко в сексуальных складках Horny Fuck Slut. (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, только не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятности . .).Эластичный вибрирующий мастурбатор Horny Fuck Slut Vibrating.  Эластичный вибрирующий мастурбатор Horny Fuck Slut Vibrating. Модель: hiddde-17038. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Коктейльные вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус коктейля водка+энергетик не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом Vibration! Vodka (15 мл).  Жидкий вибратор с согревающим эффектом Vibration! Vodka (15 мл). Модель: intt-vib0003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4781,34 +4743,28 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>термопластичный эластомер</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr"/>
+          <t>15 мл</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>22</v>
-      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
@@ -4827,7 +4783,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>мастурбатор, пульт с 2 пульками</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4847,28 +4803,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>INTT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Мастурбатор-анус в форме пениса Hidden</t>
+          <t>Жидкий вибратор с согревающим эффектом</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-26578-1299</t>
+          <t>id-25831-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4884,17 +4840,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26578/26578_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25831/25831_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25831/25831_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25831/25831_3_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам понравится Big Dick Dipper из коллекции Bangers от Hidden Desire! Этот ручной анальный мастурбатор изготовлен из ультра-реалистичного TPR, который на ощупь невероятно шелковистый. Благодаря детализированному анальному отверстию, сочным складкам и невероятно плотному поглаживанию качественный Big Dick Dipper готов к захватывающему удовольствию на ходу, когда и где бы вы ни пожелали! (Наши эксперты говорят, что эта игрушка премиум-класса может показаться даже лучше, чем настоящая, просто не говорите об этом своему партнеру, иначе у вас могут возникнуть проблемы . .).Мастурбатор-анус в форме пениса Hidden Desire Big Dick Dipper.  Мастурбатор-анус в форме пениса Hidden Desire Big Dick Dipper. Модель: hiddde-17041. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Бодрящие вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус кофе не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и ароматом кофе Vibration! Coffee (15 мл).  Жидкий вибратор с согревающим эффектом и ароматом кофе Vibration! Coffee (15 мл). Модель: intt-vib0005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4907,34 +4863,28 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>термопластичный эластомер</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr"/>
+          <t>15 мл</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>23</v>
-      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
@@ -4973,28 +4923,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо с петлей для мошонки</t>
+          <t>Жидкий вибратор с согревающим эффектом</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-26598-1299</t>
+          <t>id-25828-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -5005,39 +4955,35 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Жидкий вибратор с согревающим эффектом и ароматом джин-тоника Vibration! Gin &amp;amp</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26598/26598_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26598/26598_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26598/26598_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25828/25828_25828_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кольцо Stallion C-Ring от Hidden Desire - это высококачественное кольцо. Восьмиугольное кольцо изготовлено из мягкого и сверхэластичного силикона премиум-класса. Обеспечивает плотную посадку там, где это наиболее важно. Работайте усерднее и дольше с этим незаменимым дизайном и исследуйте свои скрытые желания с помощью этого прочного и высококачественного фетиш-продукта. Эрекционное кольцо с петлей для мошонки Soft Silicone Stallion C-Ring.  Эрекционное кольцо с петлей для мошонки Soft Silicone Stallion C-Ring. Модель: hiddde-17043. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: бархатистый силикон. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Освежающие вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус коктейля джин-тоник не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и ароматом джин-тоника Vibration! Gin &amp; Tonic (15 мл).  Жидкий вибратор с согревающим эффектом и ароматом джин-тоника Vibration! Gin . Модель: intt-vib0007. Бразилия-Португалия.  Tonic (15 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Бразилия</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>бархатистый силикон</t>
-        </is>
-      </c>
+          <t>Косметика, препараты</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
@@ -5050,12 +4996,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X36" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -5077,7 +5019,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>15 мл</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -5097,28 +5039,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>IROHA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо Soft Silicone Jock</t>
+          <t>Мини-вибратор в виде помады IROHA Stick</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-26599-1299</t>
+          <t>id-28256-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -5134,17 +5076,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26599/26599_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26599/26599_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26599/26599_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_7_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jock C-Ring от Hidden Desire - это высококачественное кольцо. Это двойное кольцо изготовлено из мягкого и сверхэластичного силикона премиум-класса. Обеспечивает плотную посадку там, где это наиболее важно. Работайте усерднее и дольше с этим незаменимым дизайном и исследуйте свои скрытые желания с помощью этого прочного и высококачественного фетиш-продукта. Эрекционное кольцо Soft Silicone Jock C-Ring.  Эрекционное кольцо Soft Silicone Jock C-Ring. Модель: hiddde-17044. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: бархатистый силикон. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Компактный и стильный вибратор от японского бренда IROHA выполнен в традиционном минималистичном дизайне.Возьмите его с собой на прогулку или в путешествие  с таким спутником вы всегда найдете чем себя занять, а форма помады не привлечет лишнего внимания.Устройство полностью водонепроницаемо, а значит вы сможете стимулировать самые чувствительные точки вашего тела прямо в душе или ванне.Нежное бархатистое покрытие из гипоаллергенного силикона позволит вам навсегда забыть о дискомфорте, а особая антистатическая технология поможет защитить устройство от частичек пыли.Управляйте классической вибрацией с помощью специального диска в основании стимулятора.Вращайте диск по часовой стрелке, чтобы увеличить мощность, или прокрутите его в другую сторону, и вы ощутите мягкие прикосновения.Сменная батарейка подарит вам до 5 часов непрерывного наслаждения. Мини-вибратор в виде помады IROHA Stick.  Мини-вибратор в виде помады IROHA Stick. Модель: iroha-hms-03. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый с черным. Материал: высококачественный силикон, пластик. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: IROHA. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5159,7 +5101,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>бархатистый силикон</t>
+          <t>высококачественный силикон, пластик</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5176,18 +5118,24 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9.5</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>7.7</v>
+        <v>2.2</v>
       </c>
       <c r="AG37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
@@ -5221,28 +5169,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>IROHA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина Mega Tight Fucker,</t>
+          <t>Мини-вибратор в виде помады IROHA Stick</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-26574-1299</t>
+          <t>id-28255-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5258,17 +5206,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26574/26574_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_6_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Реалистичный мастурбатор, имитирующий вагину. Передняя сторона девайса выглядит как вход в возбужденную женскую вульву с полураскрытыми половыми губками. Внутренний тоннель обладает рельефом, эффективно ласкающим пенис и вызывающим очень насыщенные интимные переживания. Девайс изготовлен из мягкого и податливого термопластичного эластомера, который похож на человеческую кожу. Если добавить любрикант на водной основе, переживания почти неотличимы от реального сношения. Намокая, материал становится еще нежнее. Длина 14 см. Мастурбатор-вагина Mega Tight Fucker, телесный.  Мастурбатор-вагина Mega Tight Fucker, телесный. Модель: hiddde-Sk17033. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">Компактный и стильный вибратор от японского бренда IROHA выполнен в традиционном минималистичном дизайне.Возьмите его с собой на прогулку или в путешествие  с таким спутником вы всегда найдете чем себя занять, а форма помады не привлечет лишнего внимания.Устройство полностью водонепроницаемо, а значит вы сможете стимулировать самые чувствительные точки вашего тела прямо в душе или ванне.Нежное бархатистое покрытие из гипоаллергенного силикона позволит вам навсегда забыть о дискомфорте, а особая антистатическая технология поможет защитить устройство от частичек пыли.Управляйте классической вибрацией с помощью специального диска в основании стимулятора.Вращайте диск по часовой стрелке, чтобы увеличить мощность, или прокрутите его в другую сторону, и вы ощутите мягкие прикосновения.Сменная батарейка подарит вам до 5 часов непрерывного наслаждения. Мини-вибратор в виде помады IROHA Stick.  Мини-вибратор в виде помады IROHA Stick. Модель: iroha-hms-04. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый с белым. Материал: высококачественный силикон, пластик. AAA x 1 шт (в комплекте)Бренд: IROHA. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -5283,7 +5231,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>термопластичный эластомер</t>
+          <t>высококачественный силикон, пластик</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5301,20 +5249,24 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="n">
-        <v>15.4</v>
+        <v>10.45</v>
       </c>
       <c r="Z38" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5347,13 +5299,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HUSTLER</t>
+          <t>IRRESISTIBLE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5363,24 +5315,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Купальник с юбочкой вишневая</t>
+          <t>Вакуумный женский массажер клитора</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-6889-1299</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-22091-1299</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>99999</v>
@@ -5392,32 +5336,32 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6889/6889_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_5_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Купальник-бикини с лифом-треугольниками (завязывается на шее и на спине) в комплекте с низкими трусиками стрингами. В наборе к бикини расклешенная юбочка. Ткань с рисунком вишенками. Купальник с юбочкой (вишневая расцветка) SM.  Купальник с юбочкой (вишневая расцветка) SM. Модель: hustler-22310-123sm. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Бикини, купальники. Цвет: черный с розовым. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: HUSTLER. </t>
+          <t xml:space="preserve">Коллекция Irresistible - это идеальное сочетание передовых технологий, высокого качества, эстетики и эргономичного дизайна. Технология работает мягко и проникновенно, стимулируя клитор с 11 различными уровнями интенсивности, от супер мягкого до мощного. Эти красиво оформленные игрушки окружают ваш клитор, не касаясь его, и стимулируют его мягкими воздушными волнами, создавая давление и уникальную проникающую в ткани вибрацию, которая не может быть достигнута без использования этой технологии. С созданием нашей технологии Touchless Airwave мы можем создать идеальную пульсацию звуковой волны, которая может проходить через ткани и стимулировать клиторальные нервные окончания, производя самые глубокие оргазмы, которые вы когда-либо испытывали! В отличие от других вибраторов, которые могут раздражать или десенсибилизировать ваш клитор чрезмерной стимуляцией, коллекция Irresistible не подвергается чрезмерной стимуляции благодаря технологии Touchless Air Wave. Готовы ли вы испытать самые интенсивные оргазмы в вашей жизни? Водонепроницаемая и гигиеничная герметичная мембрана в игрушке на 100% водонепроницаема и имеет класс защиты IP70, который является максимально возможным уровнем. Женский массажер Kissable  сделан из высококачественного силикона Kissable и имеет аккумуляторную батарею с магнитным USB-портом для зарядки и прилагаемым зарядным устройством. Когда он полностью заряжен, а для его полной зарядки требуется 2 часа, его работа будет продолжаться 60 минут. Kissable является на 100% водонепроницаемым - это означает, что вы можете его использовать в душе. Мягкий на ощупь, с тихим мотором, гладкий и водонепроницаемый Kissable, за ним очень легко ухаживать. На массажер распространяется гарантия 1 год. Вакуумный женский массажер клитора Irresistible Kissable (11 режимов).  Вакуумный женский массажер клитора Irresistible Kissable (11 режимов). Модель: irresis-002pur. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Клиторальные стимуляторы. Элитная продукция. Цвет: баклажановый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: IRRESISTIBLE. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5432,11 +5376,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="W39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>11</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
@@ -5455,7 +5409,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>Лиф, стринги, юбочка</t>
+          <t>стимулятор, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5475,28 +5429,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>JUST GLIDE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Возбуждающий интимный гель для женщин</t>
+          <t>Медицинская гель-смазка на водной</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-25832-1299</t>
+          <t>id-20562-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5512,17 +5466,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25832/25832_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25832/25832_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25832/25832_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20562/20562_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20562/20562_2_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мы знаем, что бывают дни, когда мы не хотим заниматься сексом, или периоды, когда наше либидо снижается из-за лекарств, депрессии или даже стресса.Excitation - это продукт, который помогает разбудить женский сексуальный аппетит, его можно использовать двумя разными способами: перед половым актом для увеличения полового влечения или ежедневное употребление для увеличения либидо.Изготовлен из женьшеня, известного растения, которое стимулирует выработку эстрогена, непосредственно влияющего на либидо и сексуальное желание.  Рекомендации перед половым актом: нанесите на клитор или влагалище за несколько минут до секса.Рекомендации по ежедневному применению: нанесите на клитор или влагалище перед сном. Возбуждающий интимный гель для женщин Excitation (15 мл).  Возбуждающий интимный гель для женщин Excitation (15 мл). Модель: intt-ex0001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Косметика. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Чувствительный клитор. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Высококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе Just Glide (20 мл).  Медицинская гель-смазка на водной основе Just Glide (20 мл). Модель: jglide-6101940000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5539,17 +5493,17 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -5595,13 +5549,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>JUST GLIDE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5611,12 +5565,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Возбуждающее массажное масло с</t>
+          <t>Вагинальная смазка на водной основе Bio</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-25835-1299</t>
+          <t>id-23434-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5632,44 +5586,44 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25835/25835_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25835/25835_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23434/23434_2_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающее массажное масло со вкусом и ароматом кофе дарит легкое ощущение тепла и сладости, его можно использовать при эротическом массаже, оральных ласках и проникновении. Способ применения: нанесите продукт на все желаемые участки тела и предайтесь любви. . Возбуждающее массажное масло с согревающим эффектом и ароматом кофе Coffee (30мл).  Возбуждающее массажное масло с согревающим эффектом и ароматом кофе Coffee (30мл). Модель: intt-mg0005. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Натуральная смазка на водной основе для вагинального и анального секса. Совместима с презервативами. Одобрена дерматологами. На 95% имеет натуральную биологическую основу, не содержит жиров. Для наружного применения! Изготовлено в Германии. Вагинальная смазка на водной основе Bio Special Cream (200 мл).  Вагинальная смазка на водной основе Bio Special Cream (200 мл). Модель: jglide-6208740000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -5715,13 +5669,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>JUST GLIDE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5731,12 +5685,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с согревающим эффектом</t>
+          <t>Медицинская гель-смазка на водной</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-25827-1299</t>
+          <t>id-20560-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5752,17 +5706,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25827/25827_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25827/25827_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25827/25827_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20560/20560_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клубничные вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус клубники не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и ароматом клубники Vibration! Strawberry (15 мл).  Жидкий вибратор с согревающим эффектом и ароматом клубники Vibration! Strawberry (15 мл). Модель: intt-vib0001. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Высококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе Just Glide (50 мл).  Медицинская гель-смазка на водной основе Just Glide (50 мл). Модель: jglide-6239110000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5779,17 +5733,17 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -5835,13 +5789,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>JUST GLIDE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5851,12 +5805,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с охлаждающим эффектом</t>
+          <t>Медицинская гель-смазка на водной</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-25825-1299</t>
+          <t>id-20558-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5872,17 +5826,17 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25825/25825_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25825/25825_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25825/25825_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20558/20558_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20558/20558_2_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Морозные вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус мяты не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с охлаждающим эффектом Vibration! Ice (15 мл).  Жидкий вибратор с охлаждающим эффектом Vibration! Ice (15 мл). Модель: intt-vib0002. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Высококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе Just Glide (200 мл).  Медицинская гель-смазка на водной основе Just Glide (200 мл). Модель: jglide-6239200000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5899,17 +5853,17 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -5955,13 +5909,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>JUST GLIDE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5971,12 +5925,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с согревающим эффектом</t>
+          <t>Анальная гель-смазка медицинская Just</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-25829-1299</t>
+          <t>id-20561-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5992,17 +5946,17 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25829/25829_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25829/25829_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25829/25829_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20561/20561_1_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коктейльные вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус коктейля водка+энергетик не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом Vibration! Vodka (15 мл).  Жидкий вибратор с согревающим эффектом Vibration! Vodka (15 мл). Модель: intt-vib0003. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Высококачественная медицинская анальная гель-смазка на водной основе обеспечивает длительное скольжение.Содержит комплекс 7 трав, что обуславливает легкое расслабление и длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Анальная гель-смазка медицинская Just Glide Anal на водной основе (50 мл).  Анальная гель-смазка медицинская Just Glide Anal на водной основе (50 мл). Модель: jglide-6239380000. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6019,17 +5973,17 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -6075,13 +6029,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>INTT</t>
+          <t>JUST GLIDE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -6091,12 +6045,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с согревающим эффектом</t>
+          <t>Анальная гель-смазка медицинская Just</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-25831-1299</t>
+          <t>id-20559-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -6112,17 +6066,17 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25831/25831_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25831/25831_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25831/25831_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20559/20559_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20559/20559_2_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бодрящие вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус кофе не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и ароматом кофе Vibration! Coffee (15 мл).  Жидкий вибратор с согревающим эффектом и ароматом кофе Vibration! Coffee (15 мл). Модель: intt-vib0005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Препараты и возбудители &gt; Чувствительный клитор. Препараты и возбудители &gt; Усиление оргазма. Батареек нет в комплекте. Бренд: INTT. </t>
+          <t xml:space="preserve">Высококачественная медицинская анальная гель-смазка на водной основе обеспечивает длительное скольжение.Содержит комплекс 7 трав, что обуславливает легкое расслабление и длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Анальная гель-смазка медицинская Just Glide Anal на водной основе (200 мл).  Анальная гель-смазка медицинская Just Glide Anal на водной основе (200 мл). Модель: jglide-6239460000. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6139,17 +6093,17 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -6195,28 +6149,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с согревающим эффектом</t>
+          <t>Препарат Sexy Energizer (1 шт)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-25828-1299</t>
+          <t>id-27785-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6227,32 +6181,32 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Жидкий вибратор с согревающим эффектом и ароматом джин-тоника Vibration! Gin &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25828/25828_25828_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27785/27785_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27785/27785_3_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Освежающие вибрирующие волны Jambu откроют новый уровень стимуляции, повысят не только ощущения, но и помогут изучить и открыть самые тайные грани удовольствия. Всего одна капля жидкого вибратора Vibration! позволит ощутить яркий букет из тепла, вибрации и пульсации. Количество нанесения зависит от индивидуального уровня чувствительности каждого человека. Захватывающий вкус коктейля джин-тоник не оставит партнеров равнодушными, вкус максимально приближен к натуральному.Жидкий вибратор приносит волны согревающих, пульсирующих и вибрирующих ощущений в течение более 30 минут. Продукт унисекс и может использоваться для проникновения, мастурбации, поцелуев, а также орального секса из-за его невероятного вкуса.Способ применения: нанесите 1,2 или 3 дозы (нажатия на помпу дозатор) на клитор или 1 дозу на половой член. Жидкий вибратор с согревающим эффектом и ароматом джин-тоника Vibration! Gin &amp; Tonic (15 мл).  Жидкий вибратор с согревающим эффектом и ароматом джин-тоника Vibration! Gin . Модель: intt-vib0007. Бразилия-Португалия.  Tonic (15 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Препарат Sexy Energizer Сила Императора увеличивает сексуальную энергию, улучшает кровообращение, способствует длительности эрекции и чувствительности полового члена, усиливает ощущения. Помогает устранить основные причины сексуальных расстройств.В составе следующие ингредиенты: корень женьшеня, корень имбиря, корень элеутерококка, корень шлемника, муира пурама, прополис. Препарат Sexy Energizer (1 шт).  Препарат Sexy Energizer (1 шт). Модель: jian-2915. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Усиление выносливости. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Бразилия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
@@ -6291,7 +6245,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>15 мл</t>
+          <t>1 шарик</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6311,28 +6265,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>IROHA</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Мини-вибратор в виде помады IROHA Stick</t>
+          <t>Вкусовой любрикант на водной основе</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-28256-1299</t>
+          <t>id-18736-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6348,67 +6302,57 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28256/28256_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18736/18736_1_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Компактный и стильный вибратор от японского бренда IROHA выполнен в традиционном минималистичном дизайне.Возьмите его с собой на прогулку или в путешествие  с таким спутником вы всегда найдете чем себя занять, а форма помады не привлечет лишнего внимания.Устройство полностью водонепроницаемо, а значит вы сможете стимулировать самые чувствительные точки вашего тела прямо в душе или ванне.Нежное бархатистое покрытие из гипоаллергенного силикона позволит вам навсегда забыть о дискомфорте, а особая антистатическая технология поможет защитить устройство от частичек пыли.Управляйте классической вибрацией с помощью специального диска в основании стимулятора.Вращайте диск по часовой стрелке, чтобы увеличить мощность, или прокрутите его в другую сторону, и вы ощутите мягкие прикосновения.Сменная батарейка подарит вам до 5 часов непрерывного наслаждения. Мини-вибратор в виде помады IROHA Stick.  Мини-вибратор в виде помады IROHA Stick. Модель: iroha-hms-03. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый с черным. Материал: высококачественный силикон, пластик. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: IROHA. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Малина на водной основе JO Flavored Raspberry Sorbet - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Raspberry Sorbet (малиновый сорбет) 30 мл.  Вкусовой любрикант на водной основе Raspberry Sorbet (малиновый сорбет) 30 мл. Модель: jo-10117. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>высококачественный силикон, пластик</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>2</v>
-      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6441,28 +6385,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>IROHA</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Мини-вибратор в виде помады IROHA Stick</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-28255-1299</t>
+          <t>id-20313-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6478,67 +6422,57 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28255/28255_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20313/20313_1_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Компактный и стильный вибратор от японского бренда IROHA выполнен в традиционном минималистичном дизайне.Возьмите его с собой на прогулку или в путешествие  с таким спутником вы всегда найдете чем себя занять, а форма помады не привлечет лишнего внимания.Устройство полностью водонепроницаемо, а значит вы сможете стимулировать самые чувствительные точки вашего тела прямо в душе или ванне.Нежное бархатистое покрытие из гипоаллергенного силикона позволит вам навсегда забыть о дискомфорте, а особая антистатическая технология поможет защитить устройство от частичек пыли.Управляйте классической вибрацией с помощью специального диска в основании стимулятора.Вращайте диск по часовой стрелке, чтобы увеличить мощность, или прокрутите его в другую сторону, и вы ощутите мягкие прикосновения.Сменная батарейка подарит вам до 5 часов непрерывного наслаждения. Мини-вибратор в виде помады IROHA Stick.  Мини-вибратор в виде помады IROHA Stick. Модель: iroha-hms-04. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый с белым. Материал: высококачественный силикон, пластик. AAA x 1 шт (в комплекте)Бренд: IROHA. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Арбуз на водной основе JO Flavored Watermelon - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Watermelon (арбуз) 30 мл.  Вкусовой лубрикант на водной основе Watermelon (арбуз) 30 мл. Модель: jo-10119. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>высококачественный силикон, пластик</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>2</v>
-      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6571,28 +6505,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IRRESISTIBLE</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Вакуумный женский массажер клитора</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-22091-1299</t>
+          <t>id-20312-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6608,17 +6542,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22091/22091_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20312/20312_1_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коллекция Irresistible - это идеальное сочетание передовых технологий, высокого качества, эстетики и эргономичного дизайна. Технология работает мягко и проникновенно, стимулируя клитор с 11 различными уровнями интенсивности, от супер мягкого до мощного. Эти красиво оформленные игрушки окружают ваш клитор, не касаясь его, и стимулируют его мягкими воздушными волнами, создавая давление и уникальную проникающую в ткани вибрацию, которая не может быть достигнута без использования этой технологии. С созданием нашей технологии Touchless Airwave мы можем создать идеальную пульсацию звуковой волны, которая может проходить через ткани и стимулировать клиторальные нервные окончания, производя самые глубокие оргазмы, которые вы когда-либо испытывали! В отличие от других вибраторов, которые могут раздражать или десенсибилизировать ваш клитор чрезмерной стимуляцией, коллекция Irresistible не подвергается чрезмерной стимуляции благодаря технологии Touchless Air Wave. Готовы ли вы испытать самые интенсивные оргазмы в вашей жизни? Водонепроницаемая и гигиеничная герметичная мембрана в игрушке на 100% водонепроницаема и имеет класс защиты IP70, который является максимально возможным уровнем. Женский массажер Kissable  сделан из высококачественного силикона Kissable и имеет аккумуляторную батарею с магнитным USB-портом для зарядки и прилагаемым зарядным устройством. К</t>
+          <t xml:space="preserve">Ароматизированный лубрикант Персик на водной основе JO Flavored Peachy Lips - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Peachy Lips (персик) 30 мл.  Вкусовой лубрикант на водной основе Peachy Lips (персик) 30 мл. Модель: jo-10126. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6631,38 +6565,28 @@
           <t>Экстра класс</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X49" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>11</v>
-      </c>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
@@ -6681,7 +6605,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>стимулятор, магнитное зарядное USB-устройство, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6701,13 +6625,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6717,12 +6641,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Медицинская гель-смазка на водной</t>
+          <t>Массажный гель-лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-20562-1299</t>
+          <t>id-20722-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6738,44 +6662,44 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20562/20562_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20562/20562_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20722/20722_1_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе Just Glide (20 мл).  Медицинская гель-смазка на водной основе Just Glide (20 мл). Модель: jglide-6101940000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">Массажный гель-лубрикант на силиконовой основе ALL-IN-ONE Massage Glide - FRAGRANCE FREE. Универсальное средство для чувственных наслаждений и идеального скольжения без запаха. Силиконовая основа обеспечивает гладкое и шелковистое длительное скольжение по коже, во время массажа. Испаряется после применения, делая кожу мягкой и нежной. Не требует смывания водой. С ALL-IN-ONE массаж комфортно может перейти в классический или анальный секс. Подходит даже для использования в душе. Теперь не нужно множественных тюбиков на прикроватной тумбочке, достаточно JO ALL-IN-ONE. Одно средство для массажа, для классического и для анального секса, для игр в воде, для облегчения техники глубокое горло. Шелковистый и нежный, абсолютно не липкий. Не скатывается. Не имеет вкуса. Может использоваться как лосьон для визуального увеличения яркости татуировок. Рекомендуется во всем мире врачами и фармацевтами. Массажный гель-лубрикант на силиконовой All-in-Оne Sensual нейтральный (30 мл).  Массажный гель-лубрикант на силиконовой All-in-Оne Sensual нейтральный (30 мл). Модель: jo-10145. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>20 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>20 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -6821,28 +6745,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Вагинальная смазка на водной основе Bio</t>
+          <t>Универсальная силиконовая массажная</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-23434-1299</t>
+          <t>id-21435-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6858,17 +6782,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23434/23434_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21435/21435_1_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Натуральная смазка на водной основе для вагинального и анального секса. Совместима с презервативами. Одобрена дерматологами. На 95% имеет натуральную биологическую основу, не содержит жиров. Для наружного применения! Изготовлено в Германии. Вагинальная смазка на водной основе Bio Special Cream (200 мл).  Вагинальная смазка на водной основе Bio Special Cream (200 мл). Модель: jglide-6208740000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">JO All-In-One Massage Glide  Warming  универсальная гель-смазка на силиконовой основе, содержащая стимулирующие ингредиенты. Согревающие компоненты подарят дополнительные приятные ощущения чувственного расслабления. Гель-смазка имеет идеальную консистенцию для массажа, маслянистая структура без липкости и скатывания создаст невероятную гладкость и шелковистость скольжения. А также делает нанесенные на тело татуировки ярче и увлажняет кожу. В состав геля-смазки входит силикон высочайшего качества.Применение:Одна капля силиконового массажного геля равно десяти каплям классического массажного масла. Перед использованием испытайте смазку на небольшом участке кожи. Великолепно подходит для использования в воде. Универсальная силиконовая массажная смазка с согревающим эффектом All-In-One Massage Glide (30 мл).  Универсальная силиконовая массажная смазка с согревающим эффектом All-In-One Massage Glide (30 мл). Модель: jo-10148. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6885,17 +6809,17 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -6941,13 +6865,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6957,12 +6881,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Медицинская гель-смазка на водной</t>
+          <t>Лубрикант на водно-силиконовой основе</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-20560-1299</t>
+          <t>id-21431-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6978,44 +6902,44 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20560/20560_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21431/21431_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественная медицинская гель-смазка на водной основе обеспечивает длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Медицинская гель-смазка на водной основе Just Glide (50 мл).  Медицинская гель-смазка на водной основе Just Glide (50 мл). Модель: jglide-6239110000. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">Лубрикант на водно-силиконовой основе JO Hybrid Lubricant. Уникальная формула 80.20 для долгого удовольствия и максимального комфорта. Разрабатывая гибридный любрикант компания SYSTEM JO учла все пожелания покупателей: самое длительное и шелковистое скольжение, безопасное использование с любыми сексуальными игрушками и лёгкое, быстрое удаление любриканта водой. Подходит и для классического и для анального секса. Рекомендуется во всем мире врачами и фармацевтами. Лубрикант на водно-силиконовой основе Hybrid Lubricant (30 мл).  Лубрикант на водно-силиконовой основе Hybrid Lubricant (30 мл). Модель: jo-10178. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -7061,13 +6985,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>JUST GLIDE</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7077,12 +7001,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Анальная гель-смазка медицинская Just</t>
+          <t>Охлаждающий лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-20561-1299</t>
+          <t>id-21433-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -7098,44 +7022,44 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20561/20561_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21433/21433_2_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественная медицинская анальная гель-смазка на водной основе обеспечивает длительное скольжение.Содержит комплекс 7 трав, что обуславливает легкое расслабление и длительное скольжение.Дерматологически протестирована, подходит для чувствительной кожи.Легко смывается водой. Без запаха и вкуса.Подходит для использования с латексными презервативами и секс-игрушками. Анальная гель-смазка медицинская Just Glide Anal на водной основе (50 мл).  Анальная гель-смазка медицинская Just Glide Anal на водной основе (50 мл). Модель: jglide-6239380000. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: JUST GLIDE. </t>
+          <t xml:space="preserve">Охлаждающий лубрикант на водной основе JO H2O Cooling -превосходное длительное скольжение без липкости и без скатываний. Без искусственных добавок. Нежный как силиконовый. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Обладает всеми преимуществами фаворита JO H2O, который заставит вас возвращаться к нему снова и снова.Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (30 мл).  Охлаждающий лубрикант на водной основе Lubricant H2O Cooling (30 мл). Модель: jo-10232. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -7181,28 +7105,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Препарат Sexy Energizer (1 шт)</t>
+          <t>Вкусовой лубрикант Gelato Decadent</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-27785-1299</t>
+          <t>id-24055-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -7218,40 +7142,44 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27785/27785_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27785/27785_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24055/24055_1_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Препарат Sexy Energizer Сила Императора увеличивает сексуальную энергию, улучшает кровообращение, способствует длительности эрекции и чувствительности полового члена, усиливает ощущения. Помогает устранить основные причины сексуальных расстройств.В составе следующие ингредиенты: корень женьшеня, корень имбиря, корень элеутерококка, корень шлемника, муира пурама, прополис. Препарат Sexy Energizer (1 шт).  Препарат Sexy Energizer (1 шт). Модель: jian-2915. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Усиление выносливости. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля.НОВЫЙ ВКУС JO Gelato Decadent Double Chocolate обладает уникальным сладким вкусом изысканного двойного шоколада, который подсластит ваши страстные ночи.Изысканный двойной шоколад: насыщенный вкус молочного тающего во рту шоколада, сладкий и манящий.Хранение: держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, сорбат калия, гидроксиэтилцеллюлоза, натуральный пищевой ароматизатор, сукралоза, хлорид натрия, лимонная кислота. Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (30 мл).  Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (30 мл). Модель: jo-10589. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -7277,7 +7205,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>1 шарик</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7297,7 +7225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -7313,12 +7241,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Вкусовой лубрикант White Chocolate</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-18736-1299</t>
+          <t>id-24058-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7334,12 +7262,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18736/18736_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24058/24058_1_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Малина на водной основе JO Flavored Raspberry Sorbet - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Raspberry Sorbet (малиновый сорбет) 30 мл.  Вкусовой любрикант на водной основе Raspberry Sorbet (малиновый сорбет) 30 мл. Модель: jo-10117. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля.Новый вкус JO Gelato White Chocolate Raspberry Truffle обладает потрясающим нежным сладким вкусом трюфелей из белого шоколада с малиной, который подсластит ваши страстные ночи.Трюфели из белого шоколада с малиной: Нежные таящие трюфели из сладкого белого шоколада с ягодными нотками малины, придающими пикантность классическому вкусу.ПрименениеПодходят как для орального, так и вагинального использования.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий.Хранение:Держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, сорбат калия, гидроксиэтилцеллюлоза, натуральный пищевой ароматизатор, сукралоза, хлорид натрия, лимонная кислота. Вкусовой лубрикант White Chocolate RaspberryTruffle белый шоколад с малиновым трюфелем (30 мл).  Вкусовой лубрикант White Chocolate RaspberryTruffle белый шоколад с малиновым трюфелем (30 мл). Модель: jo-10590. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7438,7 +7366,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-20313-1299</t>
+          <t>id-21437-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -7454,12 +7382,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20313/20313_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21437/21437_1_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Арбуз на водной основе JO Flavored Watermelon - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Watermelon (арбуз) 30 мл.  Вкусовой лубрикант на водной основе Watermelon (арбуз) 30 мл. Модель: jo-10119. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">JO H2O Candy Shop Flavored JO - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом ирисок. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые ароматизаторы. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Недетские сладости для недетской радости!Применение:Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Candy Shop Butterscotch (ириски) 60 мл.  Вкусовой лубрикант на водной основе Candy Shop Butterscotch (ириски) 60 мл. Модель: jo-10630. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7481,17 +7409,17 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -7558,7 +7486,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-20312-1299</t>
+          <t>id-21438-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7574,12 +7502,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20312/20312_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21438/21438_1_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Персик на водной основе JO Flavored Peachy Lips - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Peachy Lips (персик) 30 мл.  Вкусовой лубрикант на водной основе Peachy Lips (персик) 30 мл. Модель: jo-10126. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">JO H2O Candy Shop Flavored JO - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом жвачки Бабл Гам. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые ароматизаторы. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Недетские сладости для недетской радости!Применение:Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Candy Shop Bubble Gum (жвачка) 60 мл.  Вкусовой лубрикант на водной основе Candy Shop Bubble Gum (жвачка) 60 мл. Модель: jo-10632. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7601,17 +7529,17 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -7637,7 +7565,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>obj=60</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7668,17 +7596,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Массажный гель-лубрикант на силиконовой</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-20722-1299</t>
+          <t>id-26054-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7694,12 +7622,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20722/20722_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26054/26054_1_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажный гель-лубрикант на силиконовой основе ALL-IN-ONE Massage Glide - FRAGRANCE FREE. Универсальное средство для чувственных наслаждений и идеального скольжения без запаха. Силиконовая основа обеспечивает гладкое и шелковистое длительное скольжение по коже, во время массажа. Испаряется после применения, делая кожу мягкой и нежной. Не требует смывания водой. С ALL-IN-ONE массаж комфортно может перейти в классический или анальный секс. Подходит даже для использования в душе. Теперь не нужно множественных тюбиков на прикроватной тумбочке, достаточно JO ALL-IN-ONE. Одно средство для массажа, для классического и для анального секса, для игр в воде, для облегчения техники глубокое горло. Шелковистый и нежный, абсолютно не липкий. Не скатывается. Не имеет вкуса. Может использоваться как лосьон для визуального увеличения яркости татуировок. Рекомендуется во всем мире врачами и фармацевтами. Массажный гель-лубрикант на силиконовой All-in-Оne Sensual нейтральный (30 мл).  Массажный гель-лубрикант на силиконовой All-in-Оne Sensual нейтральный (30 мл). Модель: jo-10145. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Клубника на водной основе JO Flavored Strawberry Kiss - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 60 мл.  Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 60 мл. Модель: jo-20118. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7709,29 +7637,29 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -7788,17 +7716,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Массажный гель-лубрикант на силиконовой</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-20723-1299</t>
+          <t>id-26055-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7814,12 +7742,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20723/20723_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26055/26055_1_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажный гель-лубрикант на силиконовой основе ALL-IN-ONE Massage Glide - LAVENDER. Универсальное средство для чувственных наслаждений и идеального скольжения с ароматом лаванды. Силиконовая основа обеспечивает гладкое и шелковистое длительное скольжение по коже, во время массажа. Испаряется после применения, делая кожу мягкой и нежной. Не требует смывания водой. С ALL-IN-ONE массаж комфортно может перейти в классический или анальный секс. Подходит даже для использования в душе. Теперь не нужно множественных тюбиков на прикроватной тумбочке, достаточно JO ALL-IN-ONE. Одно средство для массажа, для классического и для анального секса, для игр в воде, для облегчения техники глубокое горло. Шелковистый и нежный, абсолютно не липкий. Не скатывается. Не имеет вкуса. Может использоваться как лосьон для визуального увеличения яркости татуировок. Рекомендуется во всем мире врачами и фармацевтами. Массажный гель-лубрикант на силиконовой основе All-in-Оne Lavender с ароматом лаванды (30 мл).  Массажный гель-лубрикант на силиконовой основе All-in-Оne Lavender с ароматом лаванды (30 мл). Модель: jo-10146. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Арбуз на водной основе JO Flavored Watermelon - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Watermelon (арбуз) 60 мл.  Вкусовой лубрикант на водной основе Watermelon (арбуз) 60 мл. Модель: jo-20119. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7829,29 +7757,29 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -7897,7 +7825,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -7913,12 +7841,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Универсальная силиконовая массажная</t>
+          <t>Вкусовой любрикант на водной основе</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-21435-1299</t>
+          <t>id-26053-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7934,12 +7862,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21435/21435_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26053/26053_1_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO All-In-One Massage Glide  Warming  универсальная гель-смазка на силиконовой основе, содержащая стимулирующие ингредиенты. Согревающие компоненты подарят дополнительные приятные ощущения чувственного расслабления. Гель-смазка имеет идеальную консистенцию для массажа, маслянистая структура без липкости и скатывания создаст невероятную гладкость и шелковистость скольжения. А также делает нанесенные на тело татуировки ярче и увлажняет кожу. В состав геля-смазки входит силикон высочайшего качества.Применение:Одна капля силиконового массажного геля равно десяти каплям классического массажного масла. Перед использованием испытайте смазку на небольшом участке кожи. Великолепно подходит для использования в воде. Универсальная силиконовая массажная смазка с согревающим эффектом All-In-One Massage Glide (30 мл).  Универсальная силиконовая массажная смазка с согревающим эффектом All-In-One Massage Glide (30 мл). Модель: jo-10148. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Тропический на водной основе JO Flavored Tropical Passion - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Tropical Passion (тропические фрукты) 60 мл.  Вкусовой любрикант на водной основе Tropical Passion (тропические фрукты) 60 мл. Модель: jo-20121. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7961,17 +7889,17 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -8017,7 +7945,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -8033,12 +7961,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Лубрикант на водно-силиконовой основе</t>
+          <t>Вкусовой любрикант на водной основе</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-21431-1299</t>
+          <t>id-16926-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -8054,12 +7982,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21431/21431_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16926/16926_1_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на водно-силиконовой основе JO Hybrid Lubricant. Уникальная формула 80.20 для долгого удовольствия и максимального комфорта. Разрабатывая гибридный любрикант компания SYSTEM JO учла все пожелания покупателей: самое длительное и шелковистое скольжение, безопасное использование с любыми сексуальными игрушками и лёгкое, быстрое удаление любриканта водой. Подходит и для классического и для анального секса. Рекомендуется во всем мире врачами и фармацевтами. Лубрикант на водно-силиконовой основе Hybrid Lubricant (30 мл).  Лубрикант на водно-силиконовой основе Hybrid Lubricant (30 мл). Модель: jo-10178. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Вишня на водной основе JO Flavored Cherry Burst - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Вкусовой любрикант на водной основе Cherry Burst (вишня) 30 мл.  Вкусовой любрикант на водной основе Cherry Burst (вишня) 30 мл. Модель: jo-30116. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -8153,12 +8081,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Возбуждающий и согревающий лубрикант на</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-16940-1299</t>
+          <t>id-16939-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -8174,12 +8102,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16940/16940_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16939/16939_1_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на основе воды и кокосового масла JO COCO-Hybrid Lubricant - специальная формула для комфорта во время близости и интимного ухода. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Уникальная комбинация из воды и кокосового масла 70.30 совмещает гладкое длительное скольжение без липкости и без скатываний с качественным деликатным уходом. Лубрикант представляет собой белый крем с легким ароматом натурального кокосового ореха. Долгое комфортное скольжение, уход, безопасное использование с любыми сексуальными игрушками и лёгкое, быстрое удаление лубриканта водой. Рекомендуется во всем мире врачами и фармацевтами. Гладкая и шелковистая текстура и восхитительный аромат кокоса обеспечивают идеальную атмосферу в вашей спальне. Роскошная кремовая текстура идеально подходит как так для парных игр, так и для соло. Возбуждающий и согревающий лубрикант на водной основе со вкусом кокоса Hybrid Lubricant WARMING (30 мл).  Возбуждающий и согревающий лубрикант на водной основе со вкусом кокоса Hybrid Lubricant WARMING (30 мл). Модель: jo-10556. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Банан на водной основе JO Flavored Banana Lick - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Banana (банан) 30 мл.  Вкусовой лубрикант на водной основе Flavored Banana (банан) 30 мл. Модель: jo-30123. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8273,12 +8201,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант Gelato Decadent</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-24055-1299</t>
+          <t>id-16938-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -8294,12 +8222,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24055/24055_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16938/16938_2_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля.НОВЫЙ ВКУС JO Gelato Decadent Double Chocolate обладает уникальным сладким вкусом изысканного двойного шоколада, который подсластит ваши страстные ночи.Изысканный двойной шоколад: насыщенный вкус молочного тающего во рту шоколада, сладкий и манящий.Хранение: держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, сорбат калия, гидроксиэтилцеллюлоза, натуральный пищевой ароматизатор, сукралоза, хлорид натрия, лимонная кислота. Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (30 мл).  Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (30 мл). Модель: jo-10589. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Шоколад на водной основе JO Flavored Chocolate Delight - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Chocolate Delight (шоколад) 30 мл.  Вкусовой лубрикант на водной основе Flavored Chocolate Delight (шоколад) 30 мл. Модель: jo-30124. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8393,12 +8321,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант White Chocolate</t>
+          <t>Охлаждающий лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-24058-1299</t>
+          <t>id-16942-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8414,12 +8342,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24058/24058_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16942/16942_2_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля.Новый вкус JO Gelato White Chocolate Raspberry Truffle обладает потрясающим нежным сладким вкусом трюфелей из белого шоколада с малиной, который подсластит ваши страстные ночи.Трюфели из белого шоколада с малиной: Нежные таящие трюфели из сладкого белого шоколада с ягодными нотками малины, придающими пикантность классическому вкусу.ПрименениеПодходят как для орального, так и вагинального использования.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий.Хранение:Держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, сорбат калия, гидроксиэтилцеллюлоза, натуральный пищевой ароматизатор, сукралоза, хлорид натрия, лимонная кислота. Вкусовой лубрикант White Chocolate RaspberryTruffle белый шоколад с малиновым трюфелем (30 мл).  Вкусовой лубрикант White Chocolate RaspberryTruffle белый шоколад с малиновым трюфелем (30 мл). Модель: jo-10590. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Силиконовый охлаждающий лубрикант JO Premium COOL - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (30 мл).  Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (30 мл). Модель: jo-30231. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8497,7 +8425,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8513,12 +8441,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Вкусовой любрикант на водной основе</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-21437-1299</t>
+          <t>id-16928-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8534,12 +8462,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21437/21437_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16928/16928_2_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO H2O Candy Shop Flavored JO - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом ирисок. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые ароматизаторы. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Недетские сладости для недетской радости!Применение:Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Candy Shop Butterscotch (ириски) 60 мл.  Вкусовой лубрикант на водной основе Candy Shop Butterscotch (ириски) 60 мл. Модель: jo-10630. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Мята на водной основе JO Flavored Cool Mint H2O - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Cool Mint  (мята) 30 мл.  Вкусовой любрикант на водной основе Cool Mint  (мята) 30 мл. Модель: jo-30383. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8561,17 +8489,17 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -8638,11 +8566,19 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-21438-1299</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+          <t>id-16935-1299</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>99999</v>
@@ -8654,12 +8590,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21438/21438_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16935/16935_2_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO H2O Candy Shop Flavored JO - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом жвачки Бабл Гам. Созданный с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые ароматизаторы. Формула лубриканта не содержит сахара, искусственных подсластителей, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Недетские сладости для недетской радости!Применение:Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой. Вкусовой лубрикант на водной основе Candy Shop Bubble Gum (жвачка) 60 мл.  Вкусовой лубрикант на водной основе Candy Shop Bubble Gum (жвачка) 60 мл. Модель: jo-10632. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Ваниль на водной основе JO Flavored Vanilla H2O - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Vanilla Cream (ванильный крем) 30 мл.  Вкусовой лубрикант на водной основе Flavored Vanilla Cream (ванильный крем) 30 мл. Модель: jo-30384. Белье. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8681,17 +8617,13 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>60 мл</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -8717,7 +8649,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>obj=60</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8737,7 +8669,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -8748,17 +8680,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Нейтральный любрикант на силиконовой</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-26054-1299</t>
+          <t>id-10247-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8774,12 +8706,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26054/26054_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10247/10247_2_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Клубника на водной основе JO Flavored Strawberry Kiss - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 60 мл.  Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 60 мл. Модель: jo-20118. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Классический лубрикант на силиконовой основе JO Premium - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Нейтральный любрикант на силиконовой основе Premium Lubricant (120 мл).  Нейтральный любрикант на силиконовой основе Premium Lubricant (120 мл). Модель: jo-40005. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8789,29 +8721,29 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -8868,17 +8800,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Нейтральный лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-26055-1299</t>
+          <t>id-10242-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8894,12 +8826,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26055/26055_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10242/10242_2_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Арбуз на водной основе JO Flavored Watermelon - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Watermelon (арбуз) 60 мл.  Вкусовой лубрикант на водной основе Watermelon (арбуз) 60 мл. Модель: jo-20119. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Классический лубрикант на силиконовой основе JO Premium - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Нейтральный лубрикант на силиконовой основе Premium Lubricant (60 мл).  Нейтральный лубрикант на силиконовой основе Premium Lubricant (60 мл). Модель: jo-40006. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8909,12 +8841,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -8977,7 +8909,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8988,17 +8920,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Антибактериальный спрей для очищения</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-26053-1299</t>
+          <t>id-21439-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -9014,12 +8946,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26053/26053_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21439/21439_1_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Тропический на водной основе JO Flavored Tropical Passion - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Tropical Passion (тропические фрукты) 60 мл.  Вкусовой любрикант на водной основе Tropical Passion (тропические фрукты) 60 мл. Модель: jo-20121. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">JO Misting toy cleaner  специализированное средство для очищения и правильного ухода за товарами интимного назначения со свежим приятным ароматом. Все ингредиенты, входящие в его состав, исключительно высшего качества. Очиститель не содержит сульфатов, триклозана и спирта.Применение:Тщательно продуманная формула обеспечит легкое и мягкое очищение, поможет избавится от неприятного запаха. Благодаря отсутствию в составе мыла средство смывается полностью, не оставляя следов. Очиститель безопасен для материалов большинства игрушек.Просто нанесите спрей на игрушку. Подождите 60 секунд и смойте теплой водой. Антибактериальный спрей для очищения игрушек Misting Toy Cleaner (120 мл).  Антибактериальный спрей для очищения игрушек Misting Toy Cleaner (120 мл). Модель: jo-40011. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Элитная продукция &gt; Косметическая продукция. Дезинфекция &gt; Очищающие средства. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -9041,17 +8973,17 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -9097,7 +9029,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -9113,12 +9045,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Возбуждающий лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-16926-1299</t>
+          <t>id-10238-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -9134,12 +9066,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16926/16926_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10238/10238_3_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Вишня на водной основе JO Flavored Cherry Burst - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Вкусовой любрикант на водной основе Cherry Burst (вишня) 30 мл.  Вкусовой любрикант на водной основе Cherry Burst (вишня) 30 мл. Модель: jo-30116. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающий лубрикант на силиконовой основе JO Premium Warming - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Возбуждающий лубрикант на силиконовой основе Premium Lubricant Warming (60 мл).  Возбуждающий лубрикант на силиконовой основе Premium Lubricant Warming (60 мл). Модель: jo-40077. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9161,17 +9093,17 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -9217,7 +9149,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -9228,17 +9160,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Лубрикант на водной основе JO Actively</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-16933-1299</t>
+          <t>id-21029-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9254,12 +9186,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16933/16933_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21029/21029_2_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Клубника на водной основе JO Flavored Strawberry Kiss - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Strawberry Kiss (клубника) 30 мл.  Вкусовой любрикант на водной основе Strawberry Kiss (клубника) 30 мл. Модель: jo-30118. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">JO Actively Trying  лубрикант на водной основе, создающий здоровую среду для сперматозоидов, оптимизирующий уровень pH, имитирующий щелочной баланс семенной жидкости и фертильной цервикальной слизи. Имеет идеальную вязкость. Смазка обеспечивает комфортное нежное скольжение без липкости. Позволяет свободно смешиваться мужским и женским выделениям без воздействия препятствующих элементов, помогая сперматозоидам завершить путь к оплодотворению яйцеклетки и делая близость более чувственной и яркой. Помогает справиться с вагинальной сухостью без вреда для спермы.Используется в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы. Не подходит для орального использования. Легко смывается водой. Лубрикант на водной основе JO Actively Trying способствующий оплодотворению (120 мл).  Лубрикант на водной основе JO Actively Trying способствующий оплодотворению (120 мл). Модель: jo-40081. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9281,17 +9213,17 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -9337,7 +9269,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9353,12 +9285,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Анальный лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-16930-1299</t>
+          <t>id-10240-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9374,12 +9306,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16930/16930_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10240/10240_2_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Тропический на водной основе JO Flavored Tropical Passion - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Tropical Passion (тропические фрукты) 30 мл.  Вкусовой любрикант на водной основе Tropical Passion (тропические фрукты) 30 мл. Модель: jo-30121. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Анальный любрикант Anal Premium на силиконовой основе - силиконовый лубрикант высшего качества. Супер долгое скольжение, шелковистый и нежный, абсолютно не липкий. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный лубрикант на силиконовой основе Anal Premium (60 мл).  Анальный лубрикант на силиконовой основе Anal Premium (60 мл). Модель: jo-40102. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9401,17 +9333,17 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -9473,12 +9405,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Анальный лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-16939-1299</t>
+          <t>id-15650-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9494,12 +9426,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16939/16939_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15650/15650_2_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Банан на водной основе JO Flavored Banana Lick - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Banana (банан) 30 мл.  Вкусовой лубрикант на водной основе Flavored Banana (банан) 30 мл. Модель: jo-30123. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Анальный любрикант Anal Premium на силиконовой основе - силиконовый лубрикант высшего качества. Супер долгое скольжение, шелковистый и нежный, абсолютно не липкий. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный лубрикант на силиконовой основе Anal Premium (120 мл).  Анальный лубрикант на силиконовой основе Anal Premium (120 мл). Модель: jo-40103. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9521,17 +9453,17 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -9593,12 +9525,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Анальный обезболивающий и согревающий</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-16938-1299</t>
+          <t>id-10239-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9614,12 +9546,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16938/16938_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10239/10239_3_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Шоколад на водной основе JO Flavored Chocolate Delight - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Chocolate Delight (шоколад) 30 мл.  Вкусовой лубрикант на водной основе Flavored Chocolate Delight (шоколад) 30 мл. Модель: jo-30124. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Анальный лубрикант на силиконовой основе JO Anal Premium - силиконовый лубрикант высшего качества. Густая формула для супер долгого комфортного скольжения, шелковистый и нежный, абсолютно не липкий. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями.Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный обезболивающий и согревающий лубрикант на силиконовой основе Anal Premium Warming (60мл).  Анальный обезболивающий и согревающий лубрикант на силиконовой основе Anal Premium Warming (60мл). Модель: jo-40105. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9641,17 +9573,17 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -9697,7 +9629,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9713,12 +9645,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Вкусовой любрикант на водной основе</t>
+          <t>Обезболивающий согревающий анальный</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-16928-1299</t>
+          <t>id-10289-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9734,12 +9666,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16928/16928_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10289/10289_2_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Мята на водной основе JO Flavored Cool Mint H2O - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой любрикант на водной основе Cool Mint  (мята) 30 мл.  Вкусовой любрикант на водной основе Cool Mint  (мята) 30 мл. Модель: jo-30383. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Анальный любрикант на водной основе JO Anal H2O - долгое гладкое скольжение без липкости, без скатываний. Густая формула. Самый качественный любрикант на рынке. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Предупреждение: Очень скользкий на поверхностях. После пролития тщательно промойте поверхность.Состав: вода, глицерин, натрий-карбоксиметилцеллюлоза, метилпарабен, пропилпарабен, мята перечная. Хранение: держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С. Объем: 120 мл. Производитель: SYSTEM JO Products, США. Обезболивающий согревающий анальный лубрикант Anal H2O Warming (120 мл).  Обезболивающий согревающий анальный лубрикант Anal H2O Warming (120 мл). Модель: jo-40110. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9761,17 +9693,17 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -9833,24 +9765,16 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Анальный лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-16935-1299</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-10243-1299</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>99999</v>
@@ -9862,12 +9786,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16935/16935_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10243/10243_2_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Ваниль на водной основе JO Flavored Vanilla H2O - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Vanilla Cream (ванильный крем) 30 мл.  Вкусовой лубрикант на водной основе Flavored Vanilla Cream (ванильный крем) 30 мл. Модель: jo-30384. Белье. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Анальный любрикант на водной основе JO Anal H2O - долгое гладкое скольжение без липкости, без скатываний. Густая формула. Самый качественный любрикант на рынке. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Предупреждение: Очень скользкий на поверхностях. После пролития тщательно промойте поверхность. Анальный лубрикант на водной основе Anal H2O (60 мл).  Анальный лубрикант на водной основе Anal H2O (60 мл). Модель: jo-40111. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9889,13 +9813,17 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -9957,12 +9885,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Антибактериальный спрей для очищения</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-21439-1299</t>
+          <t>id-10277-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9978,12 +9906,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21439/21439_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10277/10277_2_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Misting toy cleaner  специализированное средство для очищения и правильного ухода за товарами интимного назначения со свежим приятным ароматом. Все ингредиенты, входящие в его состав, исключительно высшего качества. Очиститель не содержит сульфатов, триклозана и спирта.Применение:Тщательно продуманная формула обеспечит легкое и мягкое очищение, поможет избавится от неприятного запаха. Благодаря отсутствию в составе мыла средство смывается полностью, не оставляя следов. Очиститель безопасен для материалов большинства игрушек.Просто нанесите спрей на игрушку. Подождите 60 секунд и смойте теплой водой. Антибактериальный спрей для очищения игрушек Misting Toy Cleaner (120 мл).  Антибактериальный спрей для очищения игрушек Misting Toy Cleaner (120 мл). Модель: jo-40011. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Элитная продукция &gt; Косметическая продукция. Дезинфекция &gt; Очищающие средства. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Тропический на водной основе JO Flavored Tropical Passion - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Tropical Passion (тропические фрукты) 120 мл.  Вкусовой лубрикант на водной основе Tropical Passion (тропические фрукты) 120 мл. Модель: jo-40121. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -10077,12 +10005,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант на силиконовой</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-10238-1299</t>
+          <t>id-10284-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -10098,12 +10026,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10238/10238_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10284/10284_2_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающий лубрикант на силиконовой основе JO Premium Warming - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Возбуждающий лубрикант на силиконовой основе Premium Lubricant Warming (60 мл).  Возбуждающий лубрикант на силиконовой основе Premium Lubricant Warming (60 мл). Модель: jo-40077. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Ананас на водной основе JO Flavored Juicy Pineapple - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Juicy Pineapple (ананас) 120 мл.  Вкусовой лубрикант на водной основе Flavored Juicy Pineapple (ананас) 120 мл. Модель: jo-40172. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10125,17 +10053,17 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -10192,17 +10120,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе JO Actively</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-21029-1299</t>
+          <t>id-10279-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -10218,12 +10146,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21029/21029_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10279/10279_2_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO Actively Trying  лубрикант на водной основе, создающий здоровую среду для сперматозоидов, оптимизирующий уровень pH, имитирующий щелочной баланс семенной жидкости и фертильной цервикальной слизи. Имеет идеальную вязкость. Смазка обеспечивает комфортное нежное скольжение без липкости. Позволяет свободно смешиваться мужским и женским выделениям без воздействия препятствующих элементов, помогая сперматозоидам завершить путь к оплодотворению яйцеклетки и делая близость более чувственной и яркой. Помогает справиться с вагинальной сухостью без вреда для спермы.Используется в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы. Не подходит для орального использования. Легко смывается водой. Лубрикант на водной основе JO Actively Trying способствующий оплодотворению (120 мл).  Лубрикант на водной основе JO Actively Trying способствующий оплодотворению (120 мл). Модель: jo-40081. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Ароматизированный лубрикант Шоколад на водной основе JO Flavored Chocolate Delight - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Chocolate Delight (шоколад) 120 мл.  Вкусовой лубрикант на водной основе Chocolate Delight (шоколад) 120 мл. Модель: jo-40174. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10312,17 +10240,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на силиконовой</t>
+          <t>Возбуждающий гель для клитора мощного</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-10240-1299</t>
+          <t>id-10311-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10338,12 +10266,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10240/10240_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10311/10311_1_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный любрикант Anal Premium на силиконовой основе - силиконовый лубрикант высшего качества. Супер долгое скольжение, шелковистый и нежный, абсолютно не липкий. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный лубрикант на силиконовой основе Anal Premium (60 мл).  Анальный лубрикант на силиконовой основе Anal Premium (60 мл). Модель: jo-40102. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающий гель для клитора мощного действия JO Clitoral Atomic - Супер эффективный для супер-ощущений. Создан женщинами для женщин. Не содержит аминокислот. Безопасен для использования с презервативами. До 50 применений. Применение: небольшое количество геля нанесите на клитор и аккуратно помассируйте. Теплота и покалывающий эффект появятся через 3-5 минут. Через 45 минут эффект ослабнет и нанесение будет необходимо повторить. Возбуждающий гель для клитора мощного действия Clitoral Atomic (10 мл).  Возбуждающий гель для клитора мощного действия Clitoral Atomic (10 мл). Модель: jo-40179. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10365,17 +10293,17 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -10437,12 +10365,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на силиконовой</t>
+          <t>Охлаждающий лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-15650-1299</t>
+          <t>id-10245-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10458,12 +10386,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15650/15650_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10245/10245_2_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный любрикант Anal Premium на силиконовой основе - силиконовый лубрикант высшего качества. Супер долгое скольжение, шелковистый и нежный, абсолютно не липкий. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный лубрикант на силиконовой основе Anal Premium (120 мл).  Анальный лубрикант на силиконовой основе Anal Premium (120 мл). Модель: jo-40103. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Силиконовый охлаждающий лубрикант JO Premium COOL - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (60 мл).  Охлаждающий лубрикант на силиконовой основе Premium Lubricant Cool (60 мл). Модель: jo-40189. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10485,17 +10413,17 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -10557,12 +10485,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Анальный обезболивающий и согревающий</t>
+          <t>Обезболивающий и охлаждающий анальный</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-10239-1299</t>
+          <t>id-10290-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10578,12 +10506,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10239/10239_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10290/10290_3_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный лубрикант на силиконовой основе JO Anal Premium - силиконовый лубрикант высшего качества. Густая формула для супер долгого комфортного скольжения, шелковистый и нежный, абсолютно не липкий. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями.Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Анальный обезболивающий и согревающий лубрикант на силиконовой основе Anal Premium Warming (60мл).  Анальный обезболивающий и согревающий лубрикант на силиконовой основе Anal Premium Warming (60мл). Модель: jo-40105. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Анальный лубрикант на силиконовой основе JO Anal Premium - силиконовый лубрикант высшего качества. Густая формула для супер долгого комфортного скольжения, шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (60 мл).  Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (60 мл). Модель: jo-40208. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10677,12 +10605,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Обезболивающий согревающий анальный</t>
+          <t>Обезболивающий и охлаждающий анальный</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-10289-1299</t>
+          <t>id-18289-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -10698,12 +10626,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10289/10289_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18289/18289_2_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный любрикант на водной основе JO Anal H2O - долгое гладкое скольжение без липкости, без скатываний. Густая формула. Самый качественный любрикант на рынке. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Предупреждение: Очень скользкий на поверхностях. После пролития тщательно промойте поверхность.Состав: вода, глицерин, натрий-карбоксиметилцеллюлоза, метилпарабен, пропилпарабен, мята перечная. Хранение: держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С. Объем: 120 мл. Производитель: SYSTEM JO Products, США. Обезболивающий согревающий анальный лубрикант Anal H2O Warming (120 мл).  Обезболивающий согревающий анальный лубрикант Anal H2O Warming (120 мл). Модель: jo-40110. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Анальный лубрикант на силиконовой основе JO Anal Premium - силиконовый лубрикант высшего качества. Густая формула для супер долгого комфортного скольжения, шелковистый и нежный, абсолютно не липкий. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (120 мл).  Обезболивающий и охлаждающий анальный лубрикант Anal Premium Cool (120 мл). Модель: jo-40209. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10792,17 +10720,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на водной основе</t>
+          <t>Клиторальный возбуждающий гель с</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-10243-1299</t>
+          <t>id-10309-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -10818,12 +10746,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10243/10243_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10309/10309_2_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный любрикант на водной основе JO Anal H2O - долгое гладкое скольжение без липкости, без скатываний. Густая формула. Самый качественный любрикант на рынке. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Предупреждение: Очень скользкий на поверхностях. После пролития тщательно промойте поверхность. Анальный лубрикант на водной основе Anal H2O (60 мл).  Анальный лубрикант на водной основе Anal H2O (60 мл). Модель: jo-40111. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Создан женщинами для женщин. Не содержит аминокислот. Безопасен для использования с презервативами. Применение: небольшое количество геля нанесите на интимные участки и аккуратно помассируйте. Теплота и покалывающий эффект появятся через 3-5 минут. Через 45 минут эффект ослабнет и нанесение будет необходимо повторить. Клиторальный возбуждающий гель с охлаждающим эффектом мягкого действия Chill (10 мл).  Клиторальный возбуждающий гель с охлаждающим эффектом мягкого действия Chill (10 мл). Модель: jo-40214. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10845,17 +10773,17 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -10922,7 +10850,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-10277-1299</t>
+          <t>id-26796-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10938,12 +10866,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10277/10277_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26796/26796_1_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Тропический на водной основе JO Flavored Tropical Passion - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Tropical Passion (тропические фрукты) 120 мл.  Вкусовой лубрикант на водной основе Tropical Passion (тропические фрукты) 120 мл. Модель: jo-40121. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Вкусовой лубрикант JO Flavored Green Apple обеспечивает длительное гладкое скольжение без липкости и скатывания. Он имеет естественный вкус зеленого яблока благодаря только натуральным ароматизаторам. Не содержит сахара и подсластителей. Не нарушает микрофлору и кислотно-щелочной баланс.Лубрикант имеет водную основу, но она такая же нежная как силикон, обеспечивает долгое скольжение, никакой липкости, легко смывается водой. Лубрикант совместим с материалами любых игрушек.JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость.Идеален для оральных игр. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейли из разных вкусов.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий. Вкусовой лубрикант на водной основе Flavored Green Apple (яблоко) 120 мл.  Вкусовой лубрикант на водной основе Flavored Green Apple (яблоко) 120 мл. Модель: jo-40385. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -11037,12 +10965,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Вкусовой лубрикант Gelato Decadent</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-10284-1299</t>
+          <t>id-24056-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -11058,12 +10986,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10284/10284_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24056/24056_1_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Ананас на водной основе JO Flavored Juicy Pineapple - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Flavored Juicy Pineapple (ананас) 120 мл.  Вкусовой лубрикант на водной основе Flavored Juicy Pineapple (ананас) 120 мл. Модель: jo-40172. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля.НОВЫЙ ВКУС JO Gelato Decadent Double Chocolate обладает уникальным сладким вкусом изысканного двойного шоколада, который подсластит ваши страстные ночи.Изысканный двойной шоколад: насыщенный вкус молочного тающего во рту шоколада, сладкий и манящий.Хранение: держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, сорбат калия, гидроксиэтилцеллюлоза, натуральный пищевой ароматизатор, сукралоза, хлорид натрия, лимонная кислота. Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (120 мл).  Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (120 мл). Модель: jo-40485. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11157,12 +11085,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Вкусовой лубрикант White Chocolate</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-10279-1299</t>
+          <t>id-24057-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -11178,12 +11106,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10279/10279_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24057/24057_1_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированный лубрикант Шоколад на водной основе JO Flavored Chocolate Delight - длительное гладкое скольжение без липкости и без скатываний. Естественный вкус благодаря только натуральным ароматизаторам. Без сахара, без подсластителей, не нарушает микрофлору и кислотно-щелочной баланс. Без искусственных добавок. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейль из разных вкусов. Идеален для оральных игр. На водной основе, но нежный как силикон, долгое скольжение, никакой липкости, легко смывается водой. JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Вкусовой лубрикант на водной основе Chocolate Delight (шоколад) 120 мл.  Вкусовой лубрикант на водной основе Chocolate Delight (шоколад) 120 мл. Модель: jo-40174. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля.Новый вкус JO Gelato White Chocolate Raspberry Truffle обладает потрясающим нежным сладким вкусом трюфелей из белого шоколада с малиной, который подсластит ваши страстные ночи.Трюфели из белого шоколада с малиной: Нежные таящие трюфели из сладкого белого шоколада с ягодными нотками малины, придающими пикантность классическому вкусу.ПрименениеПодходят как для орального, так и вагинального использования.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий.Хранение:Держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, сорбат калия, гидроксиэтилцеллюлоза, натуральный пищевой ароматизатор, сукралоза, хлорид натрия, лимонная кислота. Вкусовой лубрикант White Chocolate RaspberryTruffle белый шоколад с малиновым трюфелем (120 мл).  Вкусовой лубрикант White Chocolate RaspberryTruffle белый шоколад с малиновым трюфелем (120 мл). Модель: jo-40486. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11277,12 +11205,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Лубрикант на водно-силиконовой основе</t>
+          <t>Классический лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-15946-1299</t>
+          <t>id-27981-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11298,12 +11226,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15946/15946_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27981/27981_1_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на водно-силиконовой основе JO Hybrid Lubricant. Уникальная формула 80.20 для долгого удовольствия и максимального комфорта. Разрабатывая гибридный любрикант компания SYSTEM JO учла все пожелания покупателей: самое длительное и шелковистое скольжение, безопасное использование с любыми сексуальными игрушками и лёгкое, быстрое удаление любриканта водой. Подходит и для классического и для анального секса. Рекомендуется во всем мире врачами и фармацевтами. Лубрикант на водно-силиконовой основе Hybrid Lubricant (60 мл).  Лубрикант на водно-силиконовой основе Hybrid Lubricant (60 мл). Модель: jo-40201. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Классический лубрикант JO H2O на водной основе. Все ингредиенты высшего качества. Максимально комфортная текстура для идеального, длительного гладкого скольжения без липкости и скатывания. Самый качественный лубрикант на рынке. Рекомендуется во всем мире врачами и фармацевтами.Лубрикант совместим со всеми материалами игрушек, изделиями из латекса и легко смывается водой. Глицерин растительного происхождения в составе.Применение:Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива.Предупреждение:Скользкий на поверхностях.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Глицерин, вода, натрий карбоксиметилцеллюлоза, метилпарабен, пропилпарабен.Классический лубрикант на водной основе Lubricant H2O Original (10 мл).  Классический лубрикант на водной основе Lubricant H2O Original (10 мл). Модель: jo-40688. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11325,17 +11253,17 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
@@ -11392,17 +11320,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Клиторальный возбуждающий гель с</t>
+          <t>Вкусовой лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-10309-1299</t>
+          <t>id-27982-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -11418,12 +11346,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10309/10309_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27982/27982_1_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Создан женщинами для женщин. Не содержит аминокислот. Безопасен для использования с презервативами. Применение: небольшое количество геля нанесите на интимные участки и аккуратно помассируйте. Теплота и покалывающий эффект появятся через 3-5 минут. Через 45 минут эффект ослабнет и нанесение будет необходимо повторить. Клиторальный возбуждающий гель с охлаждающим эффектом мягкого действия Chill (10 мл).  Клиторальный возбуждающий гель с охлаждающим эффектом мягкого действия Chill (10 мл). Модель: jo-40214. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Вкусовой лубрикант JO Flavored Strawberry Kiss обеспечивает длительное гладкое скольжение без липкости и скатывания. Он имеет естественный вкус малинового сорбета благодаря только натуральным ароматизаторам. Не содержит сахара и подсластителей. Глицерин растительного происхождения в составе. Безопасен для проглатывания и вагинального использования. Не нарушает микрофлору и кислотно-щелочной баланс влагалища.Лубрикант имеет водную основу, но она такая же нежная как силикон, обеспечивает долгое скольжение, никакой липкости, легко смывается водой. Лубрикант совместим с материалами большинства игрушек.JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость.Применение:Идеален для оральных игр. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейли из разных вкусов.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Глицерин, вода, натуральный пищевой ароматизатор (клубника), натрий карбоксиметилцеллюлоза, метилпарабен, пропилпарабен.Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 10 мл.  Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 10 мл. Модель: jo-40690. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11522,7 +11450,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-26796-1299</t>
+          <t>id-27983-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11538,12 +11466,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26796/26796_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27983/27983_1_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вкусовой лубрикант JO Flavored Green Apple обеспечивает длительное гладкое скольжение без липкости и скатывания. Он имеет естественный вкус зеленого яблока благодаря только натуральным ароматизаторам. Не содержит сахара и подсластителей. Не нарушает микрофлору и кислотно-щелочной баланс.Лубрикант имеет водную основу, но она такая же нежная как силикон, обеспечивает долгое скольжение, никакой липкости, легко смывается водой. Лубрикант совместим с материалами любых игрушек.JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость.Идеален для оральных игр. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейли из разных вкусов.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий. Вкусовой лубрикант на водной основе Flavored Green Apple (яблоко) 120 мл.  Вкусовой лубрикант на водной основе Flavored Green Apple (яблоко) 120 мл. Модель: jo-40385. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">JO H2O Candy Shop Cotton Candy - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом сахарной ваты. Создан с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые ароматизаторы. Формула лубриканта не содержит сахара, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Недетские сладости для недетской радости!Применение:Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, гидроксиэтилцеллюлоза, сорбат калия, хлорид натрия, сукралоза, натуральный вкусовой ароматизатор, цитрусовая кислота.Вкусовой лубрикант на водной основе Candy Shop Cotton Candy (сахарная вата) 10 мл.  Вкусовой лубрикант на водной основе Candy Shop Cotton Candy (сахарная вата) 10 мл. Модель: jo-40691. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11565,17 +11493,17 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
@@ -11637,12 +11565,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант Gelato Decadent</t>
+          <t>Натуральный лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-24056-1299</t>
+          <t>id-16929-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11658,12 +11586,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24056/24056_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16929/16929_1_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля.НОВЫЙ ВКУС JO Gelato Decadent Double Chocolate обладает уникальным сладким вкусом изысканного двойного шоколада, который подсластит ваши страстные ночи.Изысканный двойной шоколад: насыщенный вкус молочного тающего во рту шоколада, сладкий и манящий.Хранение: держать в закрытом виде хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, сорбат калия, гидроксиэтилцеллюлоза, натуральный пищевой ароматизатор, сукралоза, хлорид натрия, лимонная кислота. Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (120 мл).  Вкусовой лубрикант Gelato Decadent Double Chocolate двойной шоколад (120 мл). Модель: jo-40485. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Натуральный лубрикант JO NATURALOVE USDA ORIGINAL более чем на 95% состоит из натуральных компонентов, качество которых подтверждено сертификатом USDA. Его легкая текстура обеспечивает длительное, гладкое и шелковистое скольжение, не нарушая естественные ощущения. Скольжение достигается за счет экстракта Агавы, ромашка придает янтарную окраску и служит консервантом. Нежная сладость и вкус, похожий на жженый сахар, делают его приятным для оральных ласк. NATURAL LOVE стимулирует процесс регенерации, защищает от потери влаги, поддерживая естественную лубрикацию, питает, увлажняет. Не содержит глицерина, парабенов, подсластителей. Только природные органические компоненты. Возвращает нежность и свежесть интимной зоне. Не липкий, не горчит, можно использовать с любыми презервативами и сексуальными игрушками. JO Organic рекомендуется во всем мире врачами и фармацевтами. Натуральный лубрикант на водной основе с экстрактом ромашки Organic (30 мл).  Натуральный лубрикант на водной основе с экстрактом ромашки Organic (30 мл). Модель: jo-41001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11685,17 +11613,17 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -11757,12 +11685,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Классический лубрикант на водной основе</t>
+          <t>Съедобный лубрикант на водной основе JO</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-27981-1299</t>
+          <t>id-18388-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11778,12 +11706,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27981/27981_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18388/18388_1_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классический лубрикант JO H2O на водной основе. Все ингредиенты высшего качества. Максимально комфортная текстура для идеального, длительного гладкого скольжения без липкости и скатывания. Самый качественный лубрикант на рынке. Рекомендуется во всем мире врачами и фармацевтами.Лубрикант совместим со всеми материалами игрушек, изделиями из латекса и легко смывается водой. Глицерин растительного происхождения в составе.Применение:Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива.Предупреждение:Скользкий на поверхностях.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Глицерин, вода, натрий карбоксиметилцеллюлоза, метилпарабен, пропилпарабен.Классический лубрикант на водной основе Lubricant H2O Original (10 мл).  Классический лубрикант на водной основе Lubricant H2O Original (10 мл). Модель: jo-40688. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Натуральный лубрикант JO NATURALOVE USDA STRAWBERRY более чем на 95% состоит из натуральных компонентов, качество которых подтверждено сертификатом USDA. Его легкая текстура обеспечивает длительное, гладкое и шелковистое скольжение, не нарушая естественные ощущения. Скольжение достигается за счет экстракта Агавы, ромашка придает янтарную окраску и служит консервантом. Нежная сладость и вкус клубничного варенья делают его приятным для оральных ласк. NATURAL LOVE стимулирует процесс регенерации, защищает от потери влаги, поддерживая естественную любрикацию, питает, увлажняет. Не содержит глицерина, парабенов, подсластителей. Только природные органические компоненты. Возвращает нежность и свежесть интимной зоне. Не липкий, не горчит, можно использовать с любыми презервативами и сексуальными игрушками. JO Organic рекомендуется во всем мире врачами и фармацевтами. Съедобный лубрикант на водной основе JO Organic Natural Love STRAWBERRY (клубника) 30 мл.  Съедобный лубрикант на водной основе JO Organic Natural Love STRAWBERRY (клубника) 30 мл. Модель: jo-41002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: золотистый. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11805,17 +11733,17 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -11872,17 +11800,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Вкусовой лубрикант на водной основе JO</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-27982-1299</t>
+          <t>id-17802-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -11898,12 +11826,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27982/27982_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17802/17802_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17802/17802_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17802/17802_3_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вкусовой лубрикант JO Flavored Strawberry Kiss обеспечивает длительное гладкое скольжение без липкости и скатывания. Он имеет естественный вкус малинового сорбета благодаря только натуральным ароматизаторам. Не содержит сахара и подсластителей. Глицерин растительного происхождения в составе. Безопасен для проглатывания и вагинального использования. Не нарушает микрофлору и кислотно-щелочной баланс влагалища.Лубрикант имеет водную основу, но она такая же нежная как силикон, обеспечивает долгое скольжение, никакой липкости, легко смывается водой. Лубрикант совместим с материалами большинства игрушек.JO рекомендуется во всем мире врачами и фармацевтами. Обладает всеми преимуществами фаворита JO H2O, плюс приятный аромат и нежная сладость.Применение:Идеален для оральных игр. Совместим с алкоголем. Можно добавлять в напитки, использовать как топинг, смешивать коктейли из разных вкусов.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Глицерин, вода, натуральный пищевой ароматизатор (клубника), натрий карбоксиметилцеллюлоза, метилпарабен, пропилпарабен.Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 10 мл.  Вкусовой лубрикант на водной основе Strawberry Kiss (клубника) 10 мл. Модель: jo-40690. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном гелевом лубриканте на водной основе. Длительное скольжение без липкости и без скатываний. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой ароматизированные лубриканты на водной основе предназначенные для повышения комфортности во время близости.При производстве продукта используются только качественные ингредиенты.Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование.Каждый аромат создается без сахара, парабенов и пропиленгликоля. JO Gelato Creme Brulee Flavored Lubrikant обладает уникальным сладким ароматом нежного десерта Крем Брюле, который подсластит ваши страстные ночи.КРЕМ БРЮЛЕ: Насыщенный ванильный крем, взбитый до идеальной легкой консистенции, присыпанный сахаром, который кармелизируется в хрустящую корочку. Вкусовой лубрикант на водной основе JO Gelato Creme Brulee (Крем Брюле) 30 мл.  Вкусовой лубрикант на водной основе JO Gelato Creme Brulee (Крем Брюле) 30 мл. Модель: jo-41020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -11925,17 +11853,17 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -11992,17 +11920,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе</t>
+          <t>Вкусовой лубрикант на водной основе JO</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-27983-1299</t>
+          <t>id-17804-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -12018,12 +11946,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27983/27983_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17804/17804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17804/17804_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17804/17804_3_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO H2O Candy Shop Cotton Candy - PH-сбалансированный интимный лубрикант на водной основе с потрясающим насыщенным вкусом сахарной ваты. Создан с использованием глицерина исключительно растительного происхождения. Все ингредиенты высшего качества и только натуральные вкусовые ароматизаторы. Формула лубриканта не содержит сахара, парабенов и пропилен гликоля. Обеспечивает комфортное нежное скольжение без липкости. Абсолютно безопасен для орального применения, не имеет послевкусия.Недетские сладости для недетской радости!Применение:Идеально подходит для орального секса и прелюдии. Может быть использован в качестве дополнения к естественной смазке. Небольшое количество наносится на половые органы, наружную сторону презерватива, интимную игрушку. Совместим с материалами большинства игрушек и презервативами. Легко смывается водой.Хранение:Держать в закрытом виде, хранить в сухом месте при температуре не ниже 5С и не выше 25С.Состав:Вода, глицерин, гидроксиэтилцеллюлоза, сорбат калия, хлорид натрия, сукралоза, натуральный вкусовой ароматизатор, цитрусовая кислота.Вкусовой лубрикант на водной основе Candy Shop Cotton Candy (сахарная вата) 10 мл.  Вкусовой лубрикант на водной основе Candy Shop Cotton Candy (сахарная вата) 10 мл. Модель: jo-40691. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном гелевом лубриканте на водной основе. Длительное скольжение без липкости и без скатываний. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой ароматизированные лубриканты на водной основе предназначенные для повышения комфортности во время близости.При производстве продукта используются только качественные ингредиенты.Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование.Каждый аромат создается без сахара, парабенов и пропиленгликоля. JO Gelato Mint Chocolate Flavored Lubrikant очарует необычным сочетанием аромата мяты и шоколада и доставит море незабываемых впечатлений.МЯТНЫЙ ШОКОЛАД: Свежесть мяты, переплетающаяся с обольстительной сладостью шоколада и сочетающиеся в кремовом мороженном для создания незабываемого десерта. Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 30 мл.  Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 30 мл. Модель: jo-41022h. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -12045,17 +11973,17 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
@@ -12101,7 +12029,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -12112,17 +12040,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Натуральный лубрикант на водной основе</t>
+          <t>Охлаждающий любрикант на водной основе</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-16929-1299</t>
+          <t>id-21432-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -12138,12 +12066,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16929/16929_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21432/21432_1_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Натуральный лубрикант JO NATURALOVE USDA ORIGINAL более чем на 95% состоит из натуральных компонентов, качество которых подтверждено сертификатом USDA. Его легкая текстура обеспечивает длительное, гладкое и шелковистое скольжение, не нарушая естественные ощущения. Скольжение достигается за счет экстракта Агавы, ромашка придает янтарную окраску и служит консервантом. Нежная сладость и вкус, похожий на жженый сахар, делают его приятным для оральных ласк. NATURAL LOVE стимулирует процесс регенерации, защищает от потери влаги, поддерживая естественную лубрикацию, питает, увлажняет. Не содержит глицерина, парабенов, подсластителей. Только природные органические компоненты. Возвращает нежность и свежесть интимной зоне. Не липкий, не горчит, можно использовать с любыми презервативами и сексуальными игрушками. JO Organic рекомендуется во всем мире врачами и фармацевтами. Натуральный лубрикант на водной основе с экстрактом ромашки Organic (30 мл).  Натуральный лубрикант на водной основе с экстрактом ромашки Organic (30 мл). Модель: jo-41001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Охлаждающий легкий гипоаллергенный лубрикант JO AGAPE COOLING - специальная рецептура на водной основе без глицерина, без силикона, без масел. Имитирует естественную женскую смазку. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Шелковистое ощущение , никакой липкости, долгое скольжение. Безопасен для латексных изделий, легко смывается водой. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий любрикант на водной основе для женщин Agape Personal Lubricant Cooling (30 мл).  Охлаждающий любрикант на водной основе для женщин Agape Personal Lubricant Cooling (30 мл). Модель: jo-41062. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12237,12 +12165,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Съедобный лубрикант на водной основе JO</t>
+          <t>Возбуждающий лубрикант на силиконовой</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-18388-1299</t>
+          <t>id-20321-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12258,12 +12186,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18388/18388_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20321/20321_1_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Натуральный лубрикант JO NATURALOVE USDA STRAWBERRY более чем на 95% состоит из натуральных компонентов, качество которых подтверждено сертификатом USDA. Его легкая текстура обеспечивает длительное, гладкое и шелковистое скольжение, не нарушая естественные ощущения. Скольжение достигается за счет экстракта Агавы, ромашка придает янтарную окраску и служит консервантом. Нежная сладость и вкус клубничного варенья делают его приятным для оральных ласк. NATURAL LOVE стимулирует процесс регенерации, защищает от потери влаги, поддерживая естественную любрикацию, питает, увлажняет. Не содержит глицерина, парабенов, подсластителей. Только природные органические компоненты. Возвращает нежность и свежесть интимной зоне. Не липкий, не горчит, можно использовать с любыми презервативами и сексуальными игрушками. JO Organic рекомендуется во всем мире врачами и фармацевтами. Съедобный лубрикант на водной основе JO Organic Natural Love STRAWBERRY (клубника) 30 мл.  Съедобный лубрикант на водной основе JO Organic Natural Love STRAWBERRY (клубника) 30 мл. Модель: jo-41002. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: золотистый. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Возбуждающий лубрикант на силиконовой основе JO Premium Warming - силиконовый лубрикант высшего качества. Шелковистый и нежный, абсолютно не липкий. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Долгое гладкое скольжение. Не требует смывания водой. Идеален для игр в душе. После применения испаряется с кожи, оставляя ее нежной и увлажненной. Рекомендуется во всем мире врачами и фармацевтами. Безопасен при использовании с латексными изделиями. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Возбуждающий лубрикант на силиконовой основе Premium Lubricant Warming (30 мл).  Возбуждающий лубрикант на силиконовой основе Premium Lubricant Warming (30 мл). Модель: jo-41065. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12347,22 +12275,22 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>экстра класс</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Возбуждающий лубрикант на водной основе</t>
+          <t>Клиторальный гель с контрастом</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-20320-1299</t>
+          <t>id-19507-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12373,17 +12301,17 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Клиторальный гель с контрастом температур и вибрацией JO WARM &amp;amp</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20320/20320_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19507/19507_19507_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающий легкий гипоаллергенный лубрикант JO AGAPE WARMING - специальная рецептура на водной основе без глицерина, без силикона, без масел. Имитирует естественную женскую смазку. Увеличивает чувствительность. Шелковистое ощущение, никакой липкости, долгое скольжение. Дополнительное возбуждающее тепло возникает только при трении. Чем интенсивнее контакт, тем интенсивнее согревающий эффект без жжения. Безопасен для латексных изделий, легко смывается водой. Применение: небольшое количество персонального лубриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Возбуждающий лубрикант на водной основе для женщин Agape Personal Lubricant Warming (30 мл).  Возбуждающий лубрикант на водной основе для женщин Agape Personal Lubricant Warming (30 мл). Модель: jo-41015. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">JO WARM &amp; BUZZY - это клиторальный крем на водной основе, который подарит вам поистине необычные ощущения! Наслаждайтесь возбуждающими мурашками охлаждающего эффекта, переходящими в мягкое покалывание, которое переходит в пробуждающее тепло и достигает своего пика в захватывающем эффекте вибрации. Средство на водной основе можно легко смыть при желании прервать стимуляцию. Применение: нанесите и вмассируйте немного крема клиторально во время прелюдии, или нанесите его на любимый вибратор во время соло-игры и получайте удовольствие! Действие крема до 45 минут. Клиторальный гель с контрастом температур и вибрацией JO WARM &amp; BUZZY (10 мл).  Клиторальный гель с контрастом температур и вибрацией JO WARM . Модель: jo-41216. США.  BUZZY (10 мл). Цвет: для женщин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12393,29 +12321,25 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
@@ -12441,7 +12365,7 @@
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -12472,17 +12396,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе JO</t>
+          <t>Лубрикант на водной основе с экстрактом</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-17802-1299</t>
+          <t>id-18387-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12498,12 +12422,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17802/17802_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17802/17802_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17802/17802_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18387/18387_1_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном гелевом лубриканте на водной основе. Длительное скольжение без липкости и без скатываний. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой ароматизированные лубриканты на водной основе предназначенные для повышения комфортности во время близости.При производстве продукта используются только качественные ингредиенты.Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование.Каждый аромат создается без сахара, парабенов и пропиленгликоля. JO Gelato Creme Brulee Flavored Lubrikant обладает уникальным сладким ароматом нежного десерта Крем Брюле, который подсластит ваши страстные ночи.КРЕМ БРЮЛЕ: Насыщенный ванильный крем, взбитый до идеальной легкой консистенции, присыпанный сахаром, который кармелизируется в хрустящую корочку. Вкусовой лубрикант на водной основе JO Gelato Creme Brulee (Крем Брюле) 30 мл.  Вкусовой лубрикант на водной основе JO Gelato Creme Brulee (Крем Брюле) 30 мл. Модель: jo-41020. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Натуральный лубрикант JO NATURALOVE USDA ORIGINAL более чем на 95% состоит из натуральных компонентов, качество которых подтверждено сертификатом USDA. Его легкая текстура обеспечивает длительное, гладкое и шелковистое скольжение, не нарушая естественные ощущения. Скольжение достигается за счет экстракта Агавы, ромашка придает янтарную окраску и служит консервантом. Нежная сладость и вкус, похожий на жженый сахар, делают его приятным для оральных ласк. NATURAL LOVE стимулирует процесс регенерации, защищает от потери влаги, поддерживая естественную любрикацию, питает, увлажняет. Не содержит глицерина, парабенов, подсластителей. Только природные органические компоненты. Возвращает нежность и свежесть интимной зоне. Не липкий, не горчит, можно использовать с любыми презервативами и сексуальными игрушками. JO Organic рекомендуется во всем мире врачами и фармацевтами. Лубрикант на водной основе с экстрактом ромашки JO Naturalove Original with camomile (60 мл).  Лубрикант на водной основе с экстрактом ромашки JO Naturalove Original with camomile (60 мл). Модель: jo-42001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: янтарный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12525,17 +12449,17 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
@@ -12602,7 +12526,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-17804-1299</t>
+          <t>id-17531-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12618,12 +12542,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17804/17804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17804/17804_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17804/17804_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17531/17531_1_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном гелевом лубриканте на водной основе. Длительное скольжение без липкости и без скатываний. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой ароматизированные лубриканты на водной основе предназначенные для повышения комфортности во время близости.При производстве продукта используются только качественные ингредиенты.Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование.Каждый аромат создается без сахара, парабенов и пропиленгликоля. JO Gelato Mint Chocolate Flavored Lubrikant очарует необычным сочетанием аромата мяты и шоколада и доставит море незабываемых впечатлений.МЯТНЫЙ ШОКОЛАД: Свежесть мяты, переплетающаяся с обольстительной сладостью шоколада и сочетающиеся в кремовом мороженном для создания незабываемого десерта. Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 30 мл.  Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 30 мл. Модель: jo-41022h. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном гелевом лубриканте на водной основе. Длительное скольжение без липкости и без скатываний. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!лнения к романтическому ужину. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой ароматизированные лубриканты на водной основе предназначенные для повышения комфортности во время близости.При производстве продукта используются только качественные ингредиенты.Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование.Каждый аромат создается без сахара, парабенов и пропиленгликоля. Почувствуйте себя десертом с JO Gelato Hazelnut Espresso Flavored Lubrikant с вкуснейшим ароматом орехового эспрессо.ЭСПРЕССО С ЛЕСНЫМ ОРЕХОМ: Кремовый, ореховый вкус фундука в сочетании с глубоким, легко узнаваемым вкусом эспрессо. Вкусовой лубрикант на водной основе JO Gelato Hazelnut Espresso (эспрессо с лесным орехом) 120 мл.  Вкусовой лубрикант на водной основе JO Gelato Hazelnut Espresso (эспрессо с лесным орехом) 120 мл. Модель: jo-44021. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12645,17 +12569,17 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>120</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
@@ -12701,7 +12625,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -12717,12 +12641,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Охлаждающий любрикант на водной основе</t>
+          <t>Вкусовой лубрикант на водной основе JO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-21432-1299</t>
+          <t>id-17800-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12738,12 +12662,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21432/21432_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17800/17800_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17800/17800_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17800/17800_3_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Охлаждающий легкий гипоаллергенный лубрикант JO AGAPE COOLING - специальная рецептура на водной основе без глицерина, без силикона, без масел. Имитирует естественную женскую смазку. Охлаждающий эффект создает легкие возбуждающие мурашки и делает прикосновение тел более желанным и контрастным, не жертвуя, ни одним из качеств JO. Шелковистое ощущение , никакой липкости, долгое скольжение. Безопасен для латексных изделий, легко смывается водой. Применение: небольшое количество персонального любриканта, нанесите на интимные участки. Для использования с презервативом, нанесите на наружную сторону презерватива. Охлаждающий любрикант на водной основе для женщин Agape Personal Lubricant Cooling (30 мл).  Охлаждающий любрикант на водной основе для женщин Agape Personal Lubricant Cooling (30 мл). Модель: jo-41062. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном гелевом лубриканте на водной основе. Длительное скольжение без липкости и без скатываний. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!лнения к романтическому ужину. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой ароматизированные лубриканты на водной основе предназначенные для повышения комфортности во время близости.При производстве продукта используются только качественные ингредиенты.Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование.Каждый аромат создается без сахара, парабенов и пропиленгликоля. Почувствуйте себя десертом с JO Gelato Hazelnut Espresso Flavored Lubrikant с вкуснейшим ароматом орехового эспрессо.ЭСПРЕССО С ЛЕСНЫМ ОРЕХОМ: Кремовый, ореховый вкус фундука в сочетании с глубоким, легко узнаваемым вкусом эспрессо. Вкусовой лубрикант на водной основе JO Gelato Hazelnut Espresso (эспрессо с лесным орехом) 30 мл.  Вкусовой лубрикант на водной основе JO Gelato Hazelnut Espresso (эспрессо с лесным орехом) 30 мл. Модель: jo-44021h. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12827,22 +12751,22 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>SYSTEM JO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>экстра класс</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Клиторальный гель с контрастом</t>
+          <t>Вкусовой лубрикант на водной основе JO</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-19507-1299</t>
+          <t>id-26797-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -12853,17 +12777,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Клиторальный гель с контрастом температур и вибрацией JO WARM &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19507/19507_19507_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26797/26797_1_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">JO WARM &amp; BUZZY - это клиторальный крем на водной основе, который подарит вам поистине необычные ощущения! Наслаждайтесь возбуждающими мурашками охлаждающего эффекта, переходящими в мягкое покалывание, которое переходит в пробуждающее тепло и достигает своего пика в захватывающем эффекте вибрации. Средство на водной основе можно легко смыть при желании прервать стимуляцию. Применение: нанесите и вмассируйте немного крема клиторально во время прелюдии, или нанесите его на любимый вибратор во время соло-игры и получайте удовольствие! Действие крема до 45 минут. Клиторальный гель с контрастом температур и вибрацией JO WARM &amp; BUZZY (10 мл).  Клиторальный гель с контрастом температур и вибрацией JO WARM . Модель: jo-41216. США.  BUZZY (10 мл). Цвет: для женщин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля. JO Gelato Mint Chocolate Flavored Lubricant очарует необычным сочетанием аромата мяты и шоколада и доставит море незабываемых впечатлений.Мятный шоколад: Свежесть мяты, переплетающаяся с обольстительной сладостью шоколада и сочетающиеся в кремовом мороженном для создания незабываемого десерта.Подходят как для орального, так и вагинального использования.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий. Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 120 мл.  Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 120 мл. Модель: jo-44022. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12873,25 +12797,29 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr"/>
+          <t>120 мл</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>120 мл</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>
@@ -12917,7 +12845,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
